--- a/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Macroalbuminuria (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Macroalbuminuria (UPTO).xlsx
@@ -590,67 +590,67 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.606568269762288</v>
+        <v>7.538547263681584</v>
       </c>
       <c r="H2" t="n">
-        <v>3.444571428571422</v>
+        <v>3.508000000000002</v>
       </c>
       <c r="I2" t="n">
-        <v>13.24863333333334</v>
+        <v>13.16</v>
       </c>
       <c r="J2" t="n">
-        <v>23.06836020691111</v>
+        <v>23.63667661691533</v>
       </c>
       <c r="K2" t="n">
-        <v>13.86117605031134</v>
+        <v>13.98800000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>32.55964734851207</v>
+        <v>33.40799999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>16.80520837036363</v>
+        <v>17.22549253731342</v>
       </c>
       <c r="N2" t="n">
-        <v>12.40157128085312</v>
+        <v>12.51199999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>21.46854634356013</v>
+        <v>21.44399999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>9.497205920472126</v>
+        <v>10.03446766169152</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.405631929025794</v>
+        <v>6.516000000000003</v>
       </c>
       <c r="R2" t="n">
-        <v>12.78185680213805</v>
+        <v>13.48799999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>5.984276665089092</v>
+        <v>5.509631840796016</v>
       </c>
       <c r="T2" t="n">
-        <v>3.159269984705933</v>
+        <v>2.555999999999998</v>
       </c>
       <c r="U2" t="n">
-        <v>9.219899808919314</v>
+        <v>8.928000000000001</v>
       </c>
       <c r="V2" t="n">
-        <v>2.575195864831677</v>
+        <v>2.51590049751243</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7585079365079357</v>
+        <v>0.7560000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>5.009983405483407</v>
+        <v>4.916000000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4662330569375335</v>
+        <v>0.4523582089552222</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0003777777777777778</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.377641606541608</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="3">
@@ -682,58 +682,58 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002780845771144273</v>
+        <v>0.004059701492537304</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008000000000000002</v>
+        <v>0.024</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1745600884466557</v>
+        <v>0.1689154228855719</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6213333333333322</v>
+        <v>0.6120000000000005</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3987318960751792</v>
+        <v>0.3239402985074618</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.122</v>
+        <v>0.8839999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4171632630498296</v>
+        <v>0.4219502487562183</v>
       </c>
       <c r="T3" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.136182417582417</v>
+        <v>1.072</v>
       </c>
       <c r="V3" t="n">
-        <v>0.316936829082102</v>
+        <v>0.3056318407960189</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9279214285714285</v>
+        <v>0.8759999999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0986009643387751</v>
+        <v>0.09755223880597011</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.4183444444444436</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -765,58 +765,58 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01096983097978118</v>
+        <v>0.00975124378109448</v>
       </c>
       <c r="K4" t="n">
-        <v>0.006293109911530963</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01066666666666667</v>
+        <v>0.032</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8334098396904344</v>
+        <v>0.8401592039800986</v>
       </c>
       <c r="N4" t="n">
-        <v>0.008909812409812411</v>
+        <v>0.008</v>
       </c>
       <c r="O4" t="n">
-        <v>1.837288888888893</v>
+        <v>1.831999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>1.588415035931452</v>
+        <v>1.584238805970148</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3319999999999999</v>
+        <v>0.3919999999999999</v>
       </c>
       <c r="R4" t="n">
-        <v>3.304</v>
+        <v>3.288000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>1.824251309822766</v>
+        <v>1.863601990049749</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4361809523809517</v>
+        <v>0.4159999999999999</v>
       </c>
       <c r="U4" t="n">
-        <v>3.560225396825397</v>
+        <v>3.592000000000001</v>
       </c>
       <c r="V4" t="n">
-        <v>1.470004630287714</v>
+        <v>1.467860696517412</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2816957671957671</v>
+        <v>0.312</v>
       </c>
       <c r="X4" t="n">
-        <v>2.99292380952381</v>
+        <v>2.976000000000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.4749734660033157</v>
+        <v>0.4788855721393024</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.223044444444443</v>
+        <v>1.216000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -848,58 +848,58 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2073482256457379</v>
+        <v>0.170547263681592</v>
       </c>
       <c r="K5" t="n">
-        <v>0.000888888888888889</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6507429710640225</v>
+        <v>0.6000000000000005</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3301562425965401</v>
+        <v>0.3233432835820881</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01066666666666667</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.100240522875816</v>
+        <v>1.016</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4196374420721204</v>
+        <v>0.4220895522388058</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.237503896103896</v>
+        <v>1.264</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4222533494697666</v>
+        <v>0.4190646766169144</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.253449735449735</v>
+        <v>1.240000000000001</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3422453359428479</v>
+        <v>0.34041791044776</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1.0012</v>
+        <v>1.024</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1025394527669622</v>
+        <v>0.1057114427860696</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.401999999999999</v>
+        <v>0.4239999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -922,67 +922,67 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.241580053132789</v>
+        <v>1.271263681592037</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3028870240870247</v>
+        <v>0.3239999999999998</v>
       </c>
       <c r="I6" t="n">
-        <v>2.709287301587302</v>
+        <v>2.604</v>
       </c>
       <c r="J6" t="n">
-        <v>4.541575219142374</v>
+        <v>4.547781094527346</v>
       </c>
       <c r="K6" t="n">
-        <v>1.701886772486771</v>
+        <v>1.7</v>
       </c>
       <c r="L6" t="n">
-        <v>8.434774603174606</v>
+        <v>8.407999999999996</v>
       </c>
       <c r="M6" t="n">
-        <v>5.738344884119006</v>
+        <v>5.704835820895512</v>
       </c>
       <c r="N6" t="n">
-        <v>2.33906729196729</v>
+        <v>2.324000000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>10.10121058201057</v>
+        <v>9.908000000000007</v>
       </c>
       <c r="P6" t="n">
-        <v>5.484769471177422</v>
+        <v>5.338825870646755</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.402430102978089</v>
+        <v>2.376000000000002</v>
       </c>
       <c r="R6" t="n">
-        <v>9.201846058289538</v>
+        <v>8.736000000000004</v>
       </c>
       <c r="S6" t="n">
-        <v>5.047007989633353</v>
+        <v>4.744975124378102</v>
       </c>
       <c r="T6" t="n">
-        <v>2.341898740148741</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="U6" t="n">
-        <v>7.840264815032461</v>
+        <v>7.568000000000007</v>
       </c>
       <c r="V6" t="n">
-        <v>3.450130228128228</v>
+        <v>3.340597014925367</v>
       </c>
       <c r="W6" t="n">
-        <v>1.665279350279349</v>
+        <v>1.579999999999999</v>
       </c>
       <c r="X6" t="n">
-        <v>5.844360833610832</v>
+        <v>5.487999999999999</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.9225441039520635</v>
+        <v>0.8974726368159197</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1934696065379567</v>
+        <v>0.196</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.970351875531876</v>
+        <v>1.931999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -1014,58 +1014,58 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.618811782358041</v>
+        <v>7.57299502487562</v>
       </c>
       <c r="K7" t="n">
-        <v>3.622485714285722</v>
+        <v>3.691999999999997</v>
       </c>
       <c r="L7" t="n">
-        <v>13.02970476190477</v>
+        <v>12.8</v>
       </c>
       <c r="M7" t="n">
-        <v>23.12447115217557</v>
+        <v>23.4930348258706</v>
       </c>
       <c r="N7" t="n">
-        <v>13.86533333333335</v>
+        <v>14.08800000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>33.92913333333336</v>
+        <v>34.196</v>
       </c>
       <c r="P7" t="n">
-        <v>16.73574660220495</v>
+        <v>17.08013930348259</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.37909521034521</v>
+        <v>12.37599999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>21.65570080638316</v>
+        <v>21.58400000000001</v>
       </c>
       <c r="S7" t="n">
-        <v>9.577885138564541</v>
+        <v>9.980537313432825</v>
       </c>
       <c r="T7" t="n">
-        <v>6.311061020188959</v>
+        <v>6.472</v>
       </c>
       <c r="U7" t="n">
-        <v>12.76840315301999</v>
+        <v>13.528</v>
       </c>
       <c r="V7" t="n">
-        <v>4.905758893198184</v>
+        <v>4.716776119402973</v>
       </c>
       <c r="W7" t="n">
-        <v>2.282296777296776</v>
+        <v>2.128000000000001</v>
       </c>
       <c r="X7" t="n">
-        <v>7.984140677623027</v>
+        <v>7.472</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.9211384111190072</v>
+        <v>0.8848358208955212</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.05331106301106302</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.065635642135643</v>
+        <v>1.996</v>
       </c>
     </row>
     <row r="8">
@@ -1106,49 +1106,49 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>76.77635238095245</v>
+        <v>76.2895124378108</v>
       </c>
       <c r="N8" t="n">
-        <v>63.79011111111117</v>
+        <v>63.26000000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>86.46621904761919</v>
+        <v>86.35999999999996</v>
       </c>
       <c r="P8" t="n">
-        <v>11.18481971096894</v>
+        <v>11.45558208955222</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.97819047619048</v>
+        <v>5.251999999999999</v>
       </c>
       <c r="R8" t="n">
-        <v>18.812</v>
+        <v>19.024</v>
       </c>
       <c r="S8" t="n">
-        <v>1.008955223880595</v>
+        <v>0.9502885572139287</v>
       </c>
       <c r="T8" t="n">
-        <v>0.182</v>
+        <v>0.05199999999999999</v>
       </c>
       <c r="U8" t="n">
-        <v>2.714177777777775</v>
+        <v>2.828000000000001</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1062835820895522</v>
+        <v>0.07404975124378102</v>
       </c>
       <c r="W8" t="n">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0.4599999999999997</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004342047339062251</v>
+        <v>0.003661691542288558</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.004000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01466666666666666</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="9">
@@ -1180,58 +1180,58 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.966333333333327</v>
+        <v>2.961930348258691</v>
       </c>
       <c r="K9" t="n">
-        <v>1.147222222222221</v>
+        <v>1.132000000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>5.594995670995663</v>
+        <v>5.572000000000003</v>
       </c>
       <c r="M9" t="n">
-        <v>5.314406135986723</v>
+        <v>5.341930348258696</v>
       </c>
       <c r="N9" t="n">
-        <v>2.24291111111111</v>
+        <v>2.312000000000002</v>
       </c>
       <c r="O9" t="n">
-        <v>9.312231457431453</v>
+        <v>9.256000000000002</v>
       </c>
       <c r="P9" t="n">
-        <v>5.591236172671981</v>
+        <v>5.608537313432821</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.458697302227642</v>
+        <v>2.452000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>9.439733333333333</v>
+        <v>9.451999999999996</v>
       </c>
       <c r="S9" t="n">
-        <v>4.969910192902724</v>
+        <v>5.003363184079598</v>
       </c>
       <c r="T9" t="n">
-        <v>2.617162282162285</v>
+        <v>2.687999999999999</v>
       </c>
       <c r="U9" t="n">
-        <v>8.180024518945112</v>
+        <v>8.247999999999998</v>
       </c>
       <c r="V9" t="n">
-        <v>3.590171655302489</v>
+        <v>3.570388059701478</v>
       </c>
       <c r="W9" t="n">
-        <v>1.634068142968143</v>
+        <v>1.499999999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>5.865984461152882</v>
+        <v>5.828000000000004</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.015521316696938</v>
+        <v>1.022965174129353</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2328092080969732</v>
+        <v>0.332</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.018647431827432</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1263,43 +1263,43 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>48.34835712711823</v>
+        <v>49.26746268656704</v>
       </c>
       <c r="K10" t="n">
-        <v>35.16670379990379</v>
+        <v>36.38000000000002</v>
       </c>
       <c r="L10" t="n">
-        <v>61.13387152477156</v>
+        <v>62.62000000000003</v>
       </c>
       <c r="M10" t="n">
-        <v>36.05725323383083</v>
+        <v>36.02650746268651</v>
       </c>
       <c r="N10" t="n">
-        <v>27.35699999999996</v>
+        <v>27.08399999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>45.39738279868285</v>
+        <v>45.37999999999998</v>
       </c>
       <c r="P10" t="n">
-        <v>3.454260206902</v>
+        <v>3.379383084577112</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8334063492063476</v>
+        <v>0.6960000000000004</v>
       </c>
       <c r="R10" t="n">
-        <v>7.640114285714285</v>
+        <v>7.680000000000001</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2840074863776346</v>
+        <v>0.2903482587064666</v>
       </c>
       <c r="T10" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.228555555555554</v>
+        <v>1.208000000000001</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02157695028391535</v>
+        <v>0.02413930348258694</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0.2079999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001870211380659142</v>
+        <v>0.002009950248756219</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.004666666666666666</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="11">
@@ -1337,67 +1337,67 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15.21099679380871</v>
+        <v>14.96197014925372</v>
       </c>
       <c r="H11" t="n">
-        <v>8.356711111111107</v>
+        <v>8.000000000000002</v>
       </c>
       <c r="I11" t="n">
-        <v>23.80587142857142</v>
+        <v>23.68799999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>34.38295176086167</v>
+        <v>34.20111442786062</v>
       </c>
       <c r="K11" t="n">
-        <v>23.46292482517483</v>
+        <v>23.808</v>
       </c>
       <c r="L11" t="n">
-        <v>43.54648893328891</v>
+        <v>42.48799999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>16.8802356940626</v>
+        <v>17.68885572139303</v>
       </c>
       <c r="N11" t="n">
-        <v>12.33066295954479</v>
+        <v>12.98</v>
       </c>
       <c r="O11" t="n">
-        <v>21.50470189911568</v>
+        <v>22.436</v>
       </c>
       <c r="P11" t="n">
-        <v>7.596278783380576</v>
+        <v>7.167104477611928</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.486195662507425</v>
+        <v>3.396000000000002</v>
       </c>
       <c r="R11" t="n">
-        <v>12.06115560986627</v>
+        <v>11.47199999999999</v>
       </c>
       <c r="S11" t="n">
-        <v>2.467941127694844</v>
+        <v>2.512497512437792</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4472999999999993</v>
+        <v>0.4359999999999998</v>
       </c>
       <c r="U11" t="n">
-        <v>5.488702973909866</v>
+        <v>5.524000000000001</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7070361525704808</v>
+        <v>0.7464278606965169</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="X11" t="n">
-        <v>2.148333333333335</v>
+        <v>2.188000000000001</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.08097733554449958</v>
+        <v>0.08929353233830835</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.3986666666666657</v>
+        <v>0.4199999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1411,76 +1411,76 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>4.229693200663336</v>
+        <v>3.666885572139298</v>
       </c>
       <c r="E12" t="n">
-        <v>1.836666666666666</v>
+        <v>1.468</v>
       </c>
       <c r="F12" t="n">
-        <v>6.924000000000008</v>
+        <v>6.404000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>11.97452360420121</v>
+        <v>12.26447761194029</v>
       </c>
       <c r="H12" t="n">
-        <v>6.32300952380953</v>
+        <v>6.387999999999996</v>
       </c>
       <c r="I12" t="n">
-        <v>19.56306190476189</v>
+        <v>19.87200000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>12.06896381943099</v>
+        <v>11.96401990049751</v>
       </c>
       <c r="K12" t="n">
-        <v>6.792367195767201</v>
+        <v>7.004000000000001</v>
       </c>
       <c r="L12" t="n">
-        <v>17.15976652236652</v>
+        <v>17.12</v>
       </c>
       <c r="M12" t="n">
-        <v>9.137824969524267</v>
+        <v>9.141512437810931</v>
       </c>
       <c r="N12" t="n">
-        <v>6.422524485987687</v>
+        <v>6.071999999999997</v>
       </c>
       <c r="O12" t="n">
-        <v>12.09839062678293</v>
+        <v>12.556</v>
       </c>
       <c r="P12" t="n">
-        <v>5.612702091938716</v>
+        <v>6.504676616915416</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.619861882126588</v>
+        <v>4.212000000000002</v>
       </c>
       <c r="R12" t="n">
-        <v>8.439090923455746</v>
+        <v>8.971999999999998</v>
       </c>
       <c r="S12" t="n">
-        <v>4.560821401649752</v>
+        <v>4.764019900497511</v>
       </c>
       <c r="T12" t="n">
-        <v>2.801058230658231</v>
+        <v>2.799999999999999</v>
       </c>
       <c r="U12" t="n">
-        <v>6.476384124647432</v>
+        <v>6.860000000000001</v>
       </c>
       <c r="V12" t="n">
-        <v>2.814171287382228</v>
+        <v>2.815781094527361</v>
       </c>
       <c r="W12" t="n">
-        <v>1.204412768712769</v>
+        <v>0.9919999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>4.441105612516137</v>
+        <v>4.559999999999997</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.6949521763476983</v>
+        <v>0.7055920398009944</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.01582009608797685</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.532670325970326</v>
+        <v>1.635999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -1503,61 +1503,61 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>63.99467815648505</v>
+        <v>64.78015920398003</v>
       </c>
       <c r="H13" t="n">
-        <v>49.51433088393087</v>
+        <v>49.94399999999996</v>
       </c>
       <c r="I13" t="n">
-        <v>78.41071226551227</v>
+        <v>77.26799999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>18.80394969596462</v>
+        <v>18.73096517412936</v>
       </c>
       <c r="K13" t="n">
-        <v>11.33759696969696</v>
+        <v>11.38800000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>26.62946926406925</v>
+        <v>26.624</v>
       </c>
       <c r="M13" t="n">
-        <v>2.714154375195899</v>
+        <v>2.862626865671641</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4492968182064676</v>
+        <v>0.5520000000000002</v>
       </c>
       <c r="O13" t="n">
-        <v>6.475570137270129</v>
+        <v>6.820000000000006</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3921831027279424</v>
+        <v>0.4174328358208942</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.436898701298701</v>
+        <v>1.552</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04954088042669432</v>
+        <v>0.06121393034825864</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.4044236060236053</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="V13" t="n">
-        <v>0.005972524206105514</v>
+        <v>0.007800995024875609</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.188</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0001343660017514397</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -1586,67 +1586,67 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>25.84494846283245</v>
+        <v>25.08398009950243</v>
       </c>
       <c r="H14" t="n">
-        <v>15.07105714285714</v>
+        <v>15.048</v>
       </c>
       <c r="I14" t="n">
-        <v>37.62579704184704</v>
+        <v>36.68000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>42.12423479322777</v>
+        <v>40.86284577114417</v>
       </c>
       <c r="K14" t="n">
-        <v>33.41905602480308</v>
+        <v>33.64800000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>49.18016286262758</v>
+        <v>47.504</v>
       </c>
       <c r="M14" t="n">
-        <v>13.56346371597427</v>
+        <v>13.24115422885571</v>
       </c>
       <c r="N14" t="n">
-        <v>7.116328778628788</v>
+        <v>7.175999999999996</v>
       </c>
       <c r="O14" t="n">
-        <v>20.43712076173455</v>
+        <v>19.95199999999999</v>
       </c>
       <c r="P14" t="n">
-        <v>3.153229509858105</v>
+        <v>3.268577114427848</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6216809523809519</v>
+        <v>0.768</v>
       </c>
       <c r="R14" t="n">
-        <v>6.823936507936513</v>
+        <v>6.784000000000004</v>
       </c>
       <c r="S14" t="n">
-        <v>0.7029081260364833</v>
+        <v>0.7769154228855706</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="U14" t="n">
-        <v>2.46769788359788</v>
+        <v>2.448000000000001</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1226871568085496</v>
+        <v>0.150049751243781</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.6458129870129874</v>
+        <v>0.6800000000000004</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.01040214556035451</v>
+        <v>0.0136915422885572</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.1933333333333329</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -1660,76 +1660,76 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.0032636815920398</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1886777752466805</v>
+        <v>0.1548457711442784</v>
       </c>
       <c r="H15" t="n">
-        <v>0.004596949891067539</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6299897158397166</v>
+        <v>0.5960000000000005</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3268474436379898</v>
+        <v>0.3213532338308444</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02666666666666666</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9846076590076587</v>
+        <v>0.9479999999999997</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4176679691231915</v>
+        <v>0.4064477611940289</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.185714500749793</v>
+        <v>1.180000000000001</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4326291391222531</v>
+        <v>0.4366169154228847</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.204814285714286</v>
+        <v>1.200000000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>0.4210865671641785</v>
+        <v>0.4502885572139295</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.221414855320117</v>
+        <v>1.208000000000001</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3157595016371129</v>
+        <v>0.3172537313432829</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0.9890476190476192</v>
+        <v>0.992</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.09214844787605982</v>
+        <v>0.1007960199004975</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.399999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1752,67 +1752,67 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.34527870699413</v>
+        <v>1.329054726368157</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3385460317460324</v>
+        <v>0.3399999999999997</v>
       </c>
       <c r="I16" t="n">
-        <v>2.807198412698412</v>
+        <v>2.684</v>
       </c>
       <c r="J16" t="n">
-        <v>4.544608149727544</v>
+        <v>4.57703482587063</v>
       </c>
       <c r="K16" t="n">
-        <v>1.746050264550263</v>
+        <v>1.767999999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>8.451734920634925</v>
+        <v>8.447999999999999</v>
       </c>
       <c r="M16" t="n">
-        <v>5.730669347899193</v>
+        <v>5.695661691542277</v>
       </c>
       <c r="N16" t="n">
-        <v>2.4189884004884</v>
+        <v>2.332000000000001</v>
       </c>
       <c r="O16" t="n">
-        <v>9.730669841269837</v>
+        <v>9.764000000000005</v>
       </c>
       <c r="P16" t="n">
-        <v>5.56376593331119</v>
+        <v>5.338169154228845</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.388807111155096</v>
+        <v>2.372000000000002</v>
       </c>
       <c r="R16" t="n">
-        <v>9.190712724956205</v>
+        <v>8.680000000000005</v>
       </c>
       <c r="S16" t="n">
-        <v>5.054183023554654</v>
+        <v>4.710407960198996</v>
       </c>
       <c r="T16" t="n">
-        <v>2.376678682428683</v>
+        <v>2.088000000000001</v>
       </c>
       <c r="U16" t="n">
-        <v>7.880461207528853</v>
+        <v>7.516000000000004</v>
       </c>
       <c r="V16" t="n">
-        <v>3.425053316390618</v>
+        <v>3.328815920398002</v>
       </c>
       <c r="W16" t="n">
-        <v>1.615598157398157</v>
+        <v>1.568</v>
       </c>
       <c r="X16" t="n">
-        <v>5.845249722499721</v>
+        <v>5.463999999999999</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.9171040028701716</v>
+        <v>0.8911442786069642</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.1987451072258043</v>
+        <v>0.204</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.978519966699966</v>
+        <v>1.899999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1826,76 +1826,76 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3.68932006633498</v>
+        <v>3.580338308457706</v>
       </c>
       <c r="E17" t="n">
-        <v>1.250666666666667</v>
+        <v>1.344</v>
       </c>
       <c r="F17" t="n">
-        <v>6.473111111111125</v>
+        <v>6.239999999999998</v>
       </c>
       <c r="G17" t="n">
-        <v>11.74365136223643</v>
+        <v>12.47219900497511</v>
       </c>
       <c r="H17" t="n">
-        <v>6.003406349206343</v>
+        <v>6.471999999999998</v>
       </c>
       <c r="I17" t="n">
-        <v>19.57315714285714</v>
+        <v>20.28400000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>12.02930752681997</v>
+        <v>12.11832835820894</v>
       </c>
       <c r="K17" t="n">
-        <v>6.6876884078884</v>
+        <v>6.904000000000004</v>
       </c>
       <c r="L17" t="n">
-        <v>17.39170303030305</v>
+        <v>17.468</v>
       </c>
       <c r="M17" t="n">
-        <v>9.275070251053128</v>
+        <v>9.222686567164173</v>
       </c>
       <c r="N17" t="n">
-        <v>6.421712596787559</v>
+        <v>6.172000000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>12.38580807580565</v>
+        <v>12.584</v>
       </c>
       <c r="P17" t="n">
-        <v>5.635465661610245</v>
+        <v>6.501054726368152</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.569772630637337</v>
+        <v>4.14</v>
       </c>
       <c r="R17" t="n">
-        <v>8.45673536790019</v>
+        <v>9.151999999999994</v>
       </c>
       <c r="S17" t="n">
-        <v>4.570334945043893</v>
+        <v>4.676935323383079</v>
       </c>
       <c r="T17" t="n">
-        <v>2.815158230658231</v>
+        <v>2.631999999999999</v>
       </c>
       <c r="U17" t="n">
-        <v>6.423996049759356</v>
+        <v>6.752000000000004</v>
       </c>
       <c r="V17" t="n">
-        <v>2.800328611870894</v>
+        <v>2.773273631840792</v>
       </c>
       <c r="W17" t="n">
-        <v>1.220637003737004</v>
+        <v>1.076</v>
       </c>
       <c r="X17" t="n">
-        <v>4.476705612516138</v>
+        <v>4.747999999999999</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.7023889546053717</v>
+        <v>0.657850746268656</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.09900870543757685</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.488018636918636</v>
+        <v>1.388</v>
       </c>
     </row>
     <row r="18">
@@ -1927,58 +1927,58 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01096983097978118</v>
+        <v>0.00975124378109448</v>
       </c>
       <c r="K18" t="n">
-        <v>0.006293109911530963</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005333333333333334</v>
+        <v>0.032</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8311809839690414</v>
+        <v>0.8401592039800986</v>
       </c>
       <c r="N18" t="n">
-        <v>0.007909812409812412</v>
+        <v>0.008</v>
       </c>
       <c r="O18" t="n">
-        <v>1.833288888888893</v>
+        <v>1.831999999999999</v>
       </c>
       <c r="P18" t="n">
-        <v>1.585894306246543</v>
+        <v>1.584238805970148</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.4880000000000003</v>
+        <v>0.3919999999999999</v>
       </c>
       <c r="R18" t="n">
-        <v>3.264</v>
+        <v>3.288000000000001</v>
       </c>
       <c r="S18" t="n">
-        <v>1.862764675892848</v>
+        <v>1.863601990049749</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4373238095238087</v>
+        <v>0.4159999999999999</v>
       </c>
       <c r="U18" t="n">
-        <v>3.632666666666669</v>
+        <v>3.592000000000001</v>
       </c>
       <c r="V18" t="n">
-        <v>1.471648632498881</v>
+        <v>1.467860696517412</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3300888888888887</v>
+        <v>0.312</v>
       </c>
       <c r="X18" t="n">
-        <v>2.975809523809524</v>
+        <v>2.976000000000001</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.4808039800995016</v>
+        <v>0.4788855721393024</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.245999999999999</v>
+        <v>1.216000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1992,76 +1992,76 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>16.72944278606964</v>
+        <v>14.92270646766168</v>
       </c>
       <c r="E19" t="n">
-        <v>9.331111111111124</v>
+        <v>8.355999999999996</v>
       </c>
       <c r="F19" t="n">
-        <v>22.87342222222225</v>
+        <v>22.21999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>34.1230938850719</v>
+        <v>34.47518407960189</v>
       </c>
       <c r="H19" t="n">
-        <v>24.58783703703702</v>
+        <v>25.19600000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>43.38475775335776</v>
+        <v>43.40800000000002</v>
       </c>
       <c r="J19" t="n">
-        <v>17.41531927900733</v>
+        <v>17.78981094527363</v>
       </c>
       <c r="K19" t="n">
-        <v>12.49469395419396</v>
+        <v>13.14</v>
       </c>
       <c r="L19" t="n">
-        <v>22.32710404780405</v>
+        <v>22.71200000000001</v>
       </c>
       <c r="M19" t="n">
-        <v>7.036198069660689</v>
+        <v>7.17757213930348</v>
       </c>
       <c r="N19" t="n">
-        <v>3.341473689178751</v>
+        <v>3.22</v>
       </c>
       <c r="O19" t="n">
-        <v>11.51728994043224</v>
+        <v>11.228</v>
       </c>
       <c r="P19" t="n">
-        <v>2.521554571712321</v>
+        <v>2.6256119402985</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.5675452843452844</v>
+        <v>0.5880000000000005</v>
       </c>
       <c r="R19" t="n">
-        <v>5.606416724936688</v>
+        <v>5.568</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8509325106071366</v>
+        <v>0.9292139303482583</v>
       </c>
       <c r="T19" t="n">
-        <v>0.08455949605949606</v>
+        <v>0.1280000000000001</v>
       </c>
       <c r="U19" t="n">
-        <v>2.22234528804529</v>
+        <v>2.408000000000002</v>
       </c>
       <c r="V19" t="n">
-        <v>0.2510139987891226</v>
+        <v>0.2688159203980094</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.8613333333333337</v>
+        <v>0.9840000000000001</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.02549805996472652</v>
+        <v>0.02599004975124367</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.2039999999999995</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="20">
@@ -2075,76 +2075,76 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.132045550027638</v>
+        <v>0.9799402985074616</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2863703703703707</v>
+        <v>0.2159999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>2.37222222222222</v>
+        <v>2.148000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>4.633173484908299</v>
+        <v>4.476258706467654</v>
       </c>
       <c r="H20" t="n">
-        <v>1.730725925925924</v>
+        <v>1.779999999999998</v>
       </c>
       <c r="I20" t="n">
-        <v>8.544606493506492</v>
+        <v>8.176000000000005</v>
       </c>
       <c r="J20" t="n">
-        <v>5.660670692657252</v>
+        <v>5.684218905472622</v>
       </c>
       <c r="K20" t="n">
-        <v>2.436051563251564</v>
+        <v>2.52</v>
       </c>
       <c r="L20" t="n">
-        <v>9.697149157596224</v>
+        <v>9.575999999999997</v>
       </c>
       <c r="M20" t="n">
-        <v>5.502337546626986</v>
+        <v>5.316139303482577</v>
       </c>
       <c r="N20" t="n">
-        <v>2.510709215512158</v>
+        <v>2.428000000000002</v>
       </c>
       <c r="O20" t="n">
-        <v>8.924420897529075</v>
+        <v>8.284000000000001</v>
       </c>
       <c r="P20" t="n">
-        <v>4.973454048865171</v>
+        <v>4.683004975124375</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.385116908363966</v>
+        <v>2.344000000000002</v>
       </c>
       <c r="R20" t="n">
-        <v>7.75394511596087</v>
+        <v>7.271999999999995</v>
       </c>
       <c r="S20" t="n">
-        <v>4.165198822872218</v>
+        <v>4.03130348258705</v>
       </c>
       <c r="T20" t="n">
-        <v>1.957618673543519</v>
+        <v>1.871999999999999</v>
       </c>
       <c r="U20" t="n">
-        <v>6.363108259771567</v>
+        <v>6.295999999999996</v>
       </c>
       <c r="V20" t="n">
-        <v>2.788052634614319</v>
+        <v>2.749691542288554</v>
       </c>
       <c r="W20" t="n">
-        <v>1.195066207866208</v>
+        <v>1.224000000000001</v>
       </c>
       <c r="X20" t="n">
-        <v>4.415521196931723</v>
+        <v>4.356000000000003</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.7157971174946292</v>
+        <v>0.7269054726368147</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.04274975869116888</v>
+        <v>0.048</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.500080737780737</v>
+        <v>1.568</v>
       </c>
     </row>
     <row r="21">
@@ -2158,76 +2158,76 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.02600995024875616</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.004000000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7033106576673731</v>
+        <v>0.7987064676616911</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08655409274821041</v>
+        <v>0.032</v>
       </c>
       <c r="I21" t="n">
-        <v>1.820441269841271</v>
+        <v>1.843999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>1.50473321533819</v>
+        <v>1.536815920398009</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3769814333814327</v>
+        <v>0.396</v>
       </c>
       <c r="L21" t="n">
-        <v>2.995042357642359</v>
+        <v>3.032</v>
       </c>
       <c r="M21" t="n">
-        <v>1.794499450208901</v>
+        <v>1.773572139303483</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4385793650793645</v>
+        <v>0.4279999999999999</v>
       </c>
       <c r="O21" t="n">
-        <v>3.802566185666186</v>
+        <v>3.808000000000002</v>
       </c>
       <c r="P21" t="n">
-        <v>1.861376476039161</v>
+        <v>1.833412935323381</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.5859980759980755</v>
+        <v>0.5960000000000005</v>
       </c>
       <c r="R21" t="n">
-        <v>3.735945621045622</v>
+        <v>3.500000000000003</v>
       </c>
       <c r="S21" t="n">
-        <v>1.78540369580668</v>
+        <v>1.774149253731342</v>
       </c>
       <c r="T21" t="n">
-        <v>0.5476666666666671</v>
+        <v>0.5880000000000004</v>
       </c>
       <c r="U21" t="n">
-        <v>3.382400240500242</v>
+        <v>3.511999999999998</v>
       </c>
       <c r="V21" t="n">
-        <v>1.311526699834163</v>
+        <v>1.315641791044777</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2931599215599214</v>
+        <v>0.352</v>
       </c>
       <c r="X21" t="n">
-        <v>2.619958241758242</v>
+        <v>2.716</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.3715942035852472</v>
+        <v>0.3755223880597012</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.9454444444444446</v>
+        <v>0.9919999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2259,52 +2259,52 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>72.94414675788602</v>
+        <v>76.50304477611928</v>
       </c>
       <c r="K22" t="n">
-        <v>60.00503430752257</v>
+        <v>63.90400000000004</v>
       </c>
       <c r="L22" t="n">
-        <v>83.63065324468559</v>
+        <v>85.57599999999998</v>
       </c>
       <c r="M22" t="n">
-        <v>11.49022996130461</v>
+        <v>11.69550248756218</v>
       </c>
       <c r="N22" t="n">
-        <v>5.20151111111111</v>
+        <v>5.312000000000001</v>
       </c>
       <c r="O22" t="n">
-        <v>19.56146507936512</v>
+        <v>19.65999999999999</v>
       </c>
       <c r="P22" t="n">
-        <v>0.9899272526257613</v>
+        <v>1.018268656716416</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01624444444444444</v>
+        <v>0.024</v>
       </c>
       <c r="R22" t="n">
-        <v>3.093619047619048</v>
+        <v>3.035999999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1010266524520253</v>
+        <v>0.09834825870646739</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0.6188259259259249</v>
+        <v>0.6400000000000007</v>
       </c>
       <c r="V22" t="n">
-        <v>0.006426915210481239</v>
+        <v>0.005930348258706446</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.05633333333333335</v>
+        <v>0.036</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.001199054172983289</v>
+        <v>0.001054726368159204</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -2324,76 +2324,76 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09672880044223324</v>
+        <v>0.0831044776119402</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001714285714285714</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4643999999999996</v>
+        <v>0.4439999999999998</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2593141269362652</v>
+        <v>0.2587661691542282</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002811111111111111</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7801484459984448</v>
+        <v>0.7959999999999998</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3690109732721663</v>
+        <v>0.3750845771144267</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.024014970214969</v>
+        <v>1.052</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4378069755562281</v>
+        <v>0.4466069651741284</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.2182962000962</v>
+        <v>1.248000000000001</v>
       </c>
       <c r="P23" t="n">
-        <v>0.4415957222026203</v>
+        <v>0.4436019900497507</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.301857142857143</v>
+        <v>1.292</v>
       </c>
       <c r="S23" t="n">
-        <v>0.4360383386652035</v>
+        <v>0.4359203980099495</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.167995807701069</v>
+        <v>1.164000000000001</v>
       </c>
       <c r="V23" t="n">
-        <v>0.3385766204118554</v>
+        <v>0.3402786069651734</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.103929365079366</v>
+        <v>1.148000000000001</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.09497265132140746</v>
+        <v>0.09504477611940296</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.4266666666666659</v>
+        <v>0.4399999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -2416,67 +2416,67 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.343015688752008</v>
+        <v>1.344318407960196</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4426349206349222</v>
+        <v>0.3559999999999997</v>
       </c>
       <c r="I24" t="n">
-        <v>2.7606</v>
+        <v>2.688000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>4.543326778804382</v>
+        <v>4.582368159203964</v>
       </c>
       <c r="K24" t="n">
-        <v>1.73421693121693</v>
+        <v>1.716</v>
       </c>
       <c r="L24" t="n">
-        <v>8.445784126984131</v>
+        <v>8.403999999999996</v>
       </c>
       <c r="M24" t="n">
-        <v>5.717560595844171</v>
+        <v>5.675880597014913</v>
       </c>
       <c r="N24" t="n">
-        <v>2.391183638583637</v>
+        <v>2.316000000000001</v>
       </c>
       <c r="O24" t="n">
-        <v>9.711111111111103</v>
+        <v>9.728000000000007</v>
       </c>
       <c r="P24" t="n">
-        <v>5.562869581735734</v>
+        <v>5.310348258706458</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.393984888932875</v>
+        <v>2.372000000000002</v>
       </c>
       <c r="R24" t="n">
-        <v>9.190712724956205</v>
+        <v>8.660000000000004</v>
       </c>
       <c r="S24" t="n">
-        <v>5.054183023554654</v>
+        <v>4.70342288557213</v>
       </c>
       <c r="T24" t="n">
-        <v>2.374678682428683</v>
+        <v>2.112000000000001</v>
       </c>
       <c r="U24" t="n">
-        <v>7.879794540862187</v>
+        <v>7.512000000000008</v>
       </c>
       <c r="V24" t="n">
-        <v>3.43840986697105</v>
+        <v>3.315820895522381</v>
       </c>
       <c r="W24" t="n">
-        <v>1.607909268509268</v>
+        <v>1.564</v>
       </c>
       <c r="X24" t="n">
-        <v>5.845249722499721</v>
+        <v>5.403999999999997</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.9164428641194805</v>
+        <v>0.8852537313432827</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.185752690339858</v>
+        <v>0.204</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.977186633366633</v>
+        <v>1.891999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -2508,58 +2508,58 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.065471941877911</v>
+        <v>1.031303482587065</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1257565323565323</v>
+        <v>0.1440000000000001</v>
       </c>
       <c r="L25" t="n">
-        <v>2.259809523809518</v>
+        <v>2.192000000000002</v>
       </c>
       <c r="M25" t="n">
-        <v>4.535463239358747</v>
+        <v>4.577094527363167</v>
       </c>
       <c r="N25" t="n">
-        <v>1.677111111111113</v>
+        <v>1.707999999999999</v>
       </c>
       <c r="O25" t="n">
-        <v>8.761277777777771</v>
+        <v>8.736000000000006</v>
       </c>
       <c r="P25" t="n">
-        <v>5.720950706783517</v>
+        <v>5.666208955223868</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.421485662016</v>
+        <v>2.428000000000002</v>
       </c>
       <c r="R25" t="n">
-        <v>9.712800000000005</v>
+        <v>9.728000000000003</v>
       </c>
       <c r="S25" t="n">
-        <v>5.362548922056378</v>
+        <v>5.304955223880587</v>
       </c>
       <c r="T25" t="n">
-        <v>2.634823801851743</v>
+        <v>2.619999999999998</v>
       </c>
       <c r="U25" t="n">
-        <v>8.685816402116407</v>
+        <v>8.387999999999998</v>
       </c>
       <c r="V25" t="n">
-        <v>3.890126673510742</v>
+        <v>3.876557213930345</v>
       </c>
       <c r="W25" t="n">
-        <v>1.873579894179897</v>
+        <v>1.948</v>
       </c>
       <c r="X25" t="n">
-        <v>6.540660461760464</v>
+        <v>6.403999999999999</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.076478857994777</v>
+        <v>1.113393034825871</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.21278683794936</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.112652188552188</v>
+        <v>2.136000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -2573,76 +2573,76 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.0151641791044776</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.04800000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6672713146996718</v>
+        <v>0.7912636815920396</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06482884022295785</v>
+        <v>0.1400000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>1.772274603174604</v>
+        <v>1.915999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>1.484732804693004</v>
+        <v>1.534845771144279</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3072385762385761</v>
+        <v>0.3759999999999999</v>
       </c>
       <c r="L26" t="n">
-        <v>3.026909024309024</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>1.78596855442328</v>
+        <v>1.811084577114428</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4869698412698411</v>
+        <v>0.444</v>
       </c>
       <c r="O26" t="n">
-        <v>3.808696296296297</v>
+        <v>3.812000000000002</v>
       </c>
       <c r="P26" t="n">
-        <v>1.882864807966506</v>
+        <v>1.859741293532336</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.5028155492655494</v>
+        <v>0.5760000000000003</v>
       </c>
       <c r="R26" t="n">
-        <v>3.884623809523807</v>
+        <v>3.651999999999998</v>
       </c>
       <c r="S26" t="n">
-        <v>1.813573510231534</v>
+        <v>1.834746268656718</v>
       </c>
       <c r="T26" t="n">
-        <v>0.5991111111111119</v>
+        <v>0.6000000000000005</v>
       </c>
       <c r="U26" t="n">
-        <v>3.476869793169794</v>
+        <v>3.523999999999998</v>
       </c>
       <c r="V26" t="n">
-        <v>1.349725673221197</v>
+        <v>1.344875621890547</v>
       </c>
       <c r="W26" t="n">
-        <v>0.238007733007733</v>
+        <v>0.228</v>
       </c>
       <c r="X26" t="n">
-        <v>2.803166666666665</v>
+        <v>2.607999999999998</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.3642875463950073</v>
+        <v>0.3613731343283572</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.002844444444444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2656,70 +2656,70 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>65.20468325041455</v>
+        <v>65.04600995024867</v>
       </c>
       <c r="E27" t="n">
-        <v>50.35999999999991</v>
+        <v>50.08400000000004</v>
       </c>
       <c r="F27" t="n">
-        <v>78.62266666666665</v>
+        <v>78.46000000000005</v>
       </c>
       <c r="G27" t="n">
-        <v>18.60577114427856</v>
+        <v>18.62573134328358</v>
       </c>
       <c r="H27" t="n">
-        <v>10.76928888888889</v>
+        <v>10.93200000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>27.40699999999998</v>
+        <v>26.92800000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>3.318385659006542</v>
+        <v>2.973970149253719</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7871858104858109</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>7.431585569985572</v>
+        <v>6.847999999999997</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6790626531612699</v>
+        <v>0.4695721393034817</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02457417788382726</v>
+        <v>0.012</v>
       </c>
       <c r="O27" t="n">
-        <v>2.250892154142155</v>
+        <v>1.763999999999999</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1022604976852773</v>
+        <v>0.06997014925373125</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.4967051948051946</v>
+        <v>0.4399999999999998</v>
       </c>
       <c r="S27" t="n">
-        <v>0.02096878486056892</v>
+        <v>0.01303482587064676</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.2011251933251929</v>
+        <v>0.204</v>
       </c>
       <c r="V27" t="n">
-        <v>0.003980296855420455</v>
+        <v>0.001412935323383082</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.007566666666666667</v>
+        <v>0.012</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0001225743108552712</v>
+        <v>5.970149253731341e-05</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -2757,58 +2757,58 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.33911305678842</v>
+        <v>18.78392039800994</v>
       </c>
       <c r="K28" t="n">
-        <v>11.0544292234998</v>
+        <v>10.748</v>
       </c>
       <c r="L28" t="n">
-        <v>30.58192118208589</v>
+        <v>29.39199999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>21.29777004228486</v>
+        <v>20.71808955223869</v>
       </c>
       <c r="N28" t="n">
-        <v>14.16714684574684</v>
+        <v>13.82400000000001</v>
       </c>
       <c r="O28" t="n">
-        <v>28.24195855459027</v>
+        <v>27.18800000000002</v>
       </c>
       <c r="P28" t="n">
-        <v>12.16869189954189</v>
+        <v>13.23148258706467</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.932634898496412</v>
+        <v>9.616000000000007</v>
       </c>
       <c r="R28" t="n">
-        <v>16.1495490243159</v>
+        <v>16.79999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>7.724105997007936</v>
+        <v>7.667601990049731</v>
       </c>
       <c r="T28" t="n">
-        <v>4.446719442246492</v>
+        <v>4.308000000000002</v>
       </c>
       <c r="U28" t="n">
-        <v>10.49858680695625</v>
+        <v>10.69600000000001</v>
       </c>
       <c r="V28" t="n">
-        <v>3.75832356974147</v>
+        <v>3.731164179104462</v>
       </c>
       <c r="W28" t="n">
-        <v>1.504466666666666</v>
+        <v>1.544</v>
       </c>
       <c r="X28" t="n">
-        <v>6.665128852434115</v>
+        <v>6.811999999999999</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.7013207612729979</v>
+        <v>0.7036218905472625</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.006230254930254931</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.732681673881675</v>
+        <v>1.763999999999998</v>
       </c>
     </row>
     <row r="29">
@@ -2822,76 +2822,76 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1713371870804707</v>
+        <v>0.1462686567164179</v>
       </c>
       <c r="E29" t="n">
-        <v>0.004603174603174603</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6060666666666659</v>
+        <v>0.5680000000000003</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3098971557280001</v>
+        <v>0.3001990049751228</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01464444444444445</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7947611111111097</v>
+        <v>0.7999999999999997</v>
       </c>
       <c r="J29" t="n">
-        <v>0.420073571296953</v>
+        <v>0.4202587064676606</v>
       </c>
       <c r="K29" t="n">
-        <v>0.002666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1.233764646464648</v>
+        <v>1.26</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4695166635281052</v>
+        <v>0.4773930348258695</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.233925925925925</v>
+        <v>1.252</v>
       </c>
       <c r="P29" t="n">
-        <v>0.4709379999768054</v>
+        <v>0.4678407960198999</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.371761904761905</v>
+        <v>1.367999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>0.4433649279410464</v>
+        <v>0.4506467661691533</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.235684696589959</v>
+        <v>1.304</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3391028366695027</v>
+        <v>0.3198407960198997</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.00734126984127</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.09356596062864717</v>
+        <v>0.09158208955223875</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.399999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -2905,76 +2905,76 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.0600597014925372</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="G30" t="n">
-        <v>8.113328346059692</v>
+        <v>8.401134328358214</v>
       </c>
       <c r="H30" t="n">
-        <v>3.91376003996004</v>
+        <v>4.071999999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>14.07977777777777</v>
+        <v>14.81999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>12.44066182674888</v>
+        <v>12.6809950248756</v>
       </c>
       <c r="K30" t="n">
-        <v>6.771391582491576</v>
+        <v>6.976000000000003</v>
       </c>
       <c r="L30" t="n">
-        <v>19.39021388241387</v>
+        <v>19.52400000000002</v>
       </c>
       <c r="M30" t="n">
-        <v>11.15930460876637</v>
+        <v>10.65404975124378</v>
       </c>
       <c r="N30" t="n">
-        <v>7.129181989045343</v>
+        <v>6.560000000000006</v>
       </c>
       <c r="O30" t="n">
-        <v>15.43079176708515</v>
+        <v>14.88</v>
       </c>
       <c r="P30" t="n">
-        <v>7.5140969108495</v>
+        <v>7.813691542288552</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.873628222196337</v>
+        <v>5.304000000000001</v>
       </c>
       <c r="R30" t="n">
-        <v>10.3341199434896</v>
+        <v>10.85200000000001</v>
       </c>
       <c r="S30" t="n">
-        <v>5.246456463216155</v>
+        <v>5.756597014925362</v>
       </c>
       <c r="T30" t="n">
-        <v>3.325818321292235</v>
+        <v>3.676000000000002</v>
       </c>
       <c r="U30" t="n">
-        <v>7.545600834575352</v>
+        <v>8.492000000000001</v>
       </c>
       <c r="V30" t="n">
-        <v>3.44089328886517</v>
+        <v>3.431283582089535</v>
       </c>
       <c r="W30" t="n">
-        <v>1.63810020371785</v>
+        <v>1.619999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>5.379760535697533</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.8099053437279063</v>
+        <v>0.8100497512437808</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.1819061453551619</v>
+        <v>0.196</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.77356043586044</v>
+        <v>1.791999999999998</v>
       </c>
     </row>
     <row r="31">
@@ -3006,58 +3006,58 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>49.39003748791325</v>
+        <v>49.4351840796019</v>
       </c>
       <c r="K31" t="n">
-        <v>36.84732584561407</v>
+        <v>35.77200000000002</v>
       </c>
       <c r="L31" t="n">
-        <v>63.6580145817146</v>
+        <v>65.15599999999998</v>
       </c>
       <c r="M31" t="n">
-        <v>24.64950686450076</v>
+        <v>24.9528955223879</v>
       </c>
       <c r="N31" t="n">
-        <v>18.87491697561696</v>
+        <v>18.92800000000001</v>
       </c>
       <c r="O31" t="n">
-        <v>29.53488258426431</v>
+        <v>30.54800000000002</v>
       </c>
       <c r="P31" t="n">
-        <v>6.628945505277833</v>
+        <v>6.757791044776112</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.56077142857143</v>
+        <v>2.595999999999998</v>
       </c>
       <c r="R31" t="n">
-        <v>11.17599047619047</v>
+        <v>11.45599999999999</v>
       </c>
       <c r="S31" t="n">
-        <v>1.637591092158256</v>
+        <v>1.607900497512438</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1919999999999997</v>
+        <v>0.2239999999999999</v>
       </c>
       <c r="U31" t="n">
-        <v>4.158466666666668</v>
+        <v>4.171999999999999</v>
       </c>
       <c r="V31" t="n">
-        <v>0.2714295190713086</v>
+        <v>0.2860497512437796</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0.9316</v>
+        <v>0.9719999999999999</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.02441738924425479</v>
+        <v>0.02889552238805956</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.1993212121212116</v>
+        <v>0.2079999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3089,58 +3089,58 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>36.6867593887777</v>
+        <v>36.30742288557202</v>
       </c>
       <c r="K32" t="n">
-        <v>25.66565978835979</v>
+        <v>25.184</v>
       </c>
       <c r="L32" t="n">
-        <v>47.69106068006069</v>
+        <v>47.22000000000001</v>
       </c>
       <c r="M32" t="n">
-        <v>40.96028884605347</v>
+        <v>41.14951243781081</v>
       </c>
       <c r="N32" t="n">
-        <v>34.58204920634923</v>
+        <v>34.72399999999999</v>
       </c>
       <c r="O32" t="n">
-        <v>47.3075887038887</v>
+        <v>47.412</v>
       </c>
       <c r="P32" t="n">
-        <v>7.153337755666096</v>
+        <v>7.488437810945266</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.04982222222222</v>
+        <v>3.168</v>
       </c>
       <c r="R32" t="n">
-        <v>13.18799999999999</v>
+        <v>13.66799999999999</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9897320066334971</v>
+        <v>1.092995024875619</v>
       </c>
       <c r="T32" t="n">
-        <v>0.028</v>
+        <v>0.036</v>
       </c>
       <c r="U32" t="n">
-        <v>2.806666666666668</v>
+        <v>3.035999999999999</v>
       </c>
       <c r="V32" t="n">
-        <v>0.09512181460514785</v>
+        <v>0.1250149253731341</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0.5640000000000004</v>
+        <v>0.6600000000000005</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.01006474863001054</v>
+        <v>0.01084577114427858</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.124238095238095</v>
+        <v>0.1440000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3163,67 +3163,67 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>25.96932856233495</v>
+        <v>25.22959203980091</v>
       </c>
       <c r="H33" t="n">
-        <v>15.05154603174603</v>
+        <v>15.07599999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>37.84879704184702</v>
+        <v>37.13600000000002</v>
       </c>
       <c r="J33" t="n">
-        <v>42.05534623601383</v>
+        <v>40.81940298507448</v>
       </c>
       <c r="K33" t="n">
-        <v>33.36357665972373</v>
+        <v>33.39599999999998</v>
       </c>
       <c r="L33" t="n">
-        <v>49.01769619596092</v>
+        <v>47.248</v>
       </c>
       <c r="M33" t="n">
-        <v>13.57706467941106</v>
+        <v>13.28467661691541</v>
       </c>
       <c r="N33" t="n">
-        <v>7.116328778628788</v>
+        <v>7.167999999999995</v>
       </c>
       <c r="O33" t="n">
-        <v>20.43578742840122</v>
+        <v>20.03999999999999</v>
       </c>
       <c r="P33" t="n">
-        <v>3.132391477796196</v>
+        <v>3.234985074626857</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.5634587301587299</v>
+        <v>0.7080000000000005</v>
       </c>
       <c r="R33" t="n">
-        <v>6.819936507936514</v>
+        <v>6.800000000000004</v>
       </c>
       <c r="S33" t="n">
-        <v>0.6874852404643441</v>
+        <v>0.7660497512437793</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="U33" t="n">
-        <v>2.463697883597884</v>
+        <v>2.491999999999998</v>
       </c>
       <c r="V33" t="n">
-        <v>0.1199044039063938</v>
+        <v>0.1434825870646766</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.658400288600289</v>
+        <v>0.7399999999999999</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.01223077490042663</v>
+        <v>0.01641791044776117</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.1919999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3237,76 +3237,76 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>18.98729021558873</v>
+        <v>18.87289552238803</v>
       </c>
       <c r="E34" t="n">
-        <v>9.948000000000008</v>
+        <v>9.939999999999998</v>
       </c>
       <c r="F34" t="n">
-        <v>29.60737777777774</v>
+        <v>29.38</v>
       </c>
       <c r="G34" t="n">
-        <v>21.25481200347469</v>
+        <v>21.42001990049747</v>
       </c>
       <c r="H34" t="n">
-        <v>14.24915238095239</v>
+        <v>14.50000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>28.84553333333333</v>
+        <v>28.708</v>
       </c>
       <c r="J34" t="n">
-        <v>13.05448564728065</v>
+        <v>13.7580895522388</v>
       </c>
       <c r="K34" t="n">
-        <v>10.05045067155066</v>
+        <v>10.428</v>
       </c>
       <c r="L34" t="n">
-        <v>17.16567678617678</v>
+        <v>17.50399999999998</v>
       </c>
       <c r="M34" t="n">
-        <v>7.879721523316841</v>
+        <v>7.726328358208946</v>
       </c>
       <c r="N34" t="n">
-        <v>4.706857793454108</v>
+        <v>4.164000000000002</v>
       </c>
       <c r="O34" t="n">
-        <v>10.61942051358827</v>
+        <v>11.096</v>
       </c>
       <c r="P34" t="n">
-        <v>4.973245482655205</v>
+        <v>4.123223880597005</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.241173379252326</v>
+        <v>1.644</v>
       </c>
       <c r="R34" t="n">
-        <v>7.835685262742194</v>
+        <v>6.972000000000004</v>
       </c>
       <c r="S34" t="n">
-        <v>2.570122508668769</v>
+        <v>2.192597014925367</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7360883505383504</v>
+        <v>0.6000000000000005</v>
       </c>
       <c r="U34" t="n">
-        <v>4.989804206582466</v>
+        <v>4.460000000000001</v>
       </c>
       <c r="V34" t="n">
-        <v>1.05390351194779</v>
+        <v>0.9737512437810939</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0495873015873016</v>
+        <v>0.016</v>
       </c>
       <c r="X34" t="n">
-        <v>2.766468131868132</v>
+        <v>2.572000000000001</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.1766042012161416</v>
+        <v>0.1662089552238805</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0002616747181964573</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.634468253968253</v>
+        <v>0.6440000000000005</v>
       </c>
     </row>
     <row r="35">
@@ -3329,67 +3329,67 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.107949445892219</v>
+        <v>2.858825870646753</v>
       </c>
       <c r="H35" t="n">
-        <v>1.055936507936508</v>
+        <v>0.9840000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>5.779307142857142</v>
+        <v>5.375999999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>5.270107448512414</v>
+        <v>5.217691542288549</v>
       </c>
       <c r="K35" t="n">
-        <v>2.250123280423282</v>
+        <v>2.12</v>
       </c>
       <c r="L35" t="n">
-        <v>9.500624482271542</v>
+        <v>9.228000000000002</v>
       </c>
       <c r="M35" t="n">
-        <v>5.660846306080122</v>
+        <v>5.550805970149233</v>
       </c>
       <c r="N35" t="n">
-        <v>2.481779489682431</v>
+        <v>2.456000000000001</v>
       </c>
       <c r="O35" t="n">
-        <v>9.142703703703706</v>
+        <v>9.112</v>
       </c>
       <c r="P35" t="n">
-        <v>5.120992488143514</v>
+        <v>4.970865671641788</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.4510888026662</v>
+        <v>2.408000000000002</v>
       </c>
       <c r="R35" t="n">
-        <v>8.11261326451327</v>
+        <v>7.840000000000006</v>
       </c>
       <c r="S35" t="n">
-        <v>4.51884888999691</v>
+        <v>4.322527363184062</v>
       </c>
       <c r="T35" t="n">
-        <v>2.049687021861867</v>
+        <v>2.140000000000001</v>
       </c>
       <c r="U35" t="n">
-        <v>6.946325058499577</v>
+        <v>6.644000000000003</v>
       </c>
       <c r="V35" t="n">
-        <v>3.077576289207373</v>
+        <v>3.021273631840786</v>
       </c>
       <c r="W35" t="n">
-        <v>1.502887875305523</v>
+        <v>1.431999999999999</v>
       </c>
       <c r="X35" t="n">
-        <v>5.132353320690316</v>
+        <v>4.759999999999998</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.7968628326182309</v>
+        <v>0.7805373134328343</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.159347035499619</v>
+        <v>0.18</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.61897266067266</v>
+        <v>1.608</v>
       </c>
     </row>
     <row r="36">
@@ -3421,58 +3421,58 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.621843954829025</v>
+        <v>7.56467661691541</v>
       </c>
       <c r="K36" t="n">
-        <v>3.623819047619055</v>
+        <v>3.691999999999997</v>
       </c>
       <c r="L36" t="n">
-        <v>13.22497142857144</v>
+        <v>13.27600000000001</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09091780778639</v>
+        <v>23.47864676616908</v>
       </c>
       <c r="N36" t="n">
-        <v>13.41111111111113</v>
+        <v>13.64800000000001</v>
       </c>
       <c r="O36" t="n">
-        <v>33.86246666666673</v>
+        <v>34.11599999999998</v>
       </c>
       <c r="P36" t="n">
-        <v>16.7331270333824</v>
+        <v>17.02809950248755</v>
       </c>
       <c r="Q36" t="n">
-        <v>12.23092354127354</v>
+        <v>11.77999999999999</v>
       </c>
       <c r="R36" t="n">
-        <v>21.61391033019268</v>
+        <v>21.47999999999999</v>
       </c>
       <c r="S36" t="n">
-        <v>9.577885138564541</v>
+        <v>9.924676616915415</v>
       </c>
       <c r="T36" t="n">
-        <v>6.342161020188957</v>
+        <v>6.620000000000004</v>
       </c>
       <c r="U36" t="n">
-        <v>12.78484759746444</v>
+        <v>13.62</v>
       </c>
       <c r="V36" t="n">
-        <v>4.902123735652579</v>
+        <v>4.766686567164171</v>
       </c>
       <c r="W36" t="n">
-        <v>2.23083011063011</v>
+        <v>2.044</v>
       </c>
       <c r="X36" t="n">
-        <v>7.954418455400806</v>
+        <v>7.560000000000003</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.908484679775724</v>
+        <v>0.8747661691542277</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.1068666185666185</v>
+        <v>0.1400000000000001</v>
       </c>
       <c r="AA36" t="n">
-        <v>2.058746753246754</v>
+        <v>1.996</v>
       </c>
     </row>
     <row r="37">
@@ -3486,76 +3486,76 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4145099897338698</v>
+        <v>0.3811741293532329</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01756190476190476</v>
+        <v>0.004000000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>1.057988888888889</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>1.225054845541411</v>
+        <v>1.275004975124378</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2816763347763345</v>
+        <v>0.348</v>
       </c>
       <c r="I37" t="n">
-        <v>2.539721428571429</v>
+        <v>2.656000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>1.756896518830349</v>
+        <v>1.756437810945274</v>
       </c>
       <c r="K37" t="n">
-        <v>0.3709295815295809</v>
+        <v>0.3639999999999999</v>
       </c>
       <c r="L37" t="n">
-        <v>3.600810245310245</v>
+        <v>3.608</v>
       </c>
       <c r="M37" t="n">
-        <v>1.893426560559397</v>
+        <v>1.888676616915421</v>
       </c>
       <c r="N37" t="n">
-        <v>0.5137809523809524</v>
+        <v>0.4920000000000002</v>
       </c>
       <c r="O37" t="n">
-        <v>3.871949783549784</v>
+        <v>3.948000000000001</v>
       </c>
       <c r="P37" t="n">
-        <v>1.849869817053603</v>
+        <v>1.846109452736318</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.5170059477559477</v>
+        <v>0.528</v>
       </c>
       <c r="R37" t="n">
-        <v>3.642612287712285</v>
+        <v>3.647999999999999</v>
       </c>
       <c r="S37" t="n">
-        <v>1.734726368159203</v>
+        <v>1.71494527363184</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4779444444444442</v>
+        <v>0.4480000000000001</v>
       </c>
       <c r="U37" t="n">
-        <v>3.231946031746028</v>
+        <v>3.168000000000001</v>
       </c>
       <c r="V37" t="n">
-        <v>1.23969207928611</v>
+        <v>1.238427860696517</v>
       </c>
       <c r="W37" t="n">
-        <v>0.2546715617715617</v>
+        <v>0.236</v>
       </c>
       <c r="X37" t="n">
-        <v>2.47022490842491</v>
+        <v>2.444000000000001</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.3342720392745262</v>
+        <v>0.3302288557213924</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.9628888888888889</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="38">
@@ -3569,76 +3569,76 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>25.53226533996675</v>
+        <v>25.25464676616902</v>
       </c>
       <c r="E38" t="n">
-        <v>15.56266666666669</v>
+        <v>15.32799999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>36.11917777777784</v>
+        <v>36.06799999999998</v>
       </c>
       <c r="G38" t="n">
-        <v>41.41567872542967</v>
+        <v>41.05749253731331</v>
       </c>
       <c r="H38" t="n">
-        <v>34.34443717763719</v>
+        <v>33.88</v>
       </c>
       <c r="I38" t="n">
-        <v>47.64337345432345</v>
+        <v>46.84399999999997</v>
       </c>
       <c r="J38" t="n">
-        <v>12.98179581984257</v>
+        <v>13.23042786069653</v>
       </c>
       <c r="K38" t="n">
-        <v>7.227604232804231</v>
+        <v>7.336</v>
       </c>
       <c r="L38" t="n">
-        <v>19.45912275132275</v>
+        <v>19.69999999999999</v>
       </c>
       <c r="M38" t="n">
-        <v>3.408945584202045</v>
+        <v>3.21542288557213</v>
       </c>
       <c r="N38" t="n">
-        <v>0.7778881168939991</v>
+        <v>0.8319999999999996</v>
       </c>
       <c r="O38" t="n">
-        <v>7.359602164502165</v>
+        <v>7.435999999999996</v>
       </c>
       <c r="P38" t="n">
-        <v>0.7721898338440626</v>
+        <v>0.7490149253731344</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.02809785856844681</v>
+        <v>0.012</v>
       </c>
       <c r="R38" t="n">
-        <v>2.459842857142858</v>
+        <v>2.488000000000001</v>
       </c>
       <c r="S38" t="n">
-        <v>0.1563898118465281</v>
+        <v>0.1767960199004974</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.8436510267510265</v>
+        <v>0.8639999999999997</v>
       </c>
       <c r="V38" t="n">
-        <v>0.02834538825182658</v>
+        <v>0.03062686567164171</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.2239939393939393</v>
+        <v>0.2279999999999999</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.001523740567521661</v>
+        <v>0.001412935323383085</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.001333333333333334</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="39">
@@ -3652,76 +3652,76 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>7.993334991708124</v>
+        <v>8.551761194029847</v>
       </c>
       <c r="E39" t="n">
-        <v>3.90811111111111</v>
+        <v>4.079999999999997</v>
       </c>
       <c r="F39" t="n">
-        <v>13.31066666666664</v>
+        <v>14.34400000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>12.44149105267314</v>
+        <v>13.01562189054726</v>
       </c>
       <c r="H39" t="n">
-        <v>6.618555555555563</v>
+        <v>6.903999999999999</v>
       </c>
       <c r="I39" t="n">
-        <v>19.67369523809523</v>
+        <v>20.088</v>
       </c>
       <c r="J39" t="n">
-        <v>11.08478938640133</v>
+        <v>11.02312437810945</v>
       </c>
       <c r="K39" t="n">
-        <v>6.601676190476191</v>
+        <v>6.784000000000002</v>
       </c>
       <c r="L39" t="n">
-        <v>15.49611111111112</v>
+        <v>15.264</v>
       </c>
       <c r="M39" t="n">
-        <v>7.882746233101254</v>
+        <v>8.061492537313416</v>
       </c>
       <c r="N39" t="n">
-        <v>4.883510030106345</v>
+        <v>5.087999999999996</v>
       </c>
       <c r="O39" t="n">
-        <v>10.42044525551301</v>
+        <v>11.09599999999999</v>
       </c>
       <c r="P39" t="n">
-        <v>5.044422664732388</v>
+        <v>5.605731343283569</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.124503367782314</v>
+        <v>3.288000000000001</v>
       </c>
       <c r="R39" t="n">
-        <v>7.850056691313622</v>
+        <v>8.135999999999999</v>
       </c>
       <c r="S39" t="n">
-        <v>4.327275575226313</v>
+        <v>4.012</v>
       </c>
       <c r="T39" t="n">
-        <v>2.559996325896325</v>
+        <v>2.168000000000001</v>
       </c>
       <c r="U39" t="n">
-        <v>6.009489537917797</v>
+        <v>6.252000000000002</v>
       </c>
       <c r="V39" t="n">
-        <v>2.46223039863213</v>
+        <v>2.401432835820889</v>
       </c>
       <c r="W39" t="n">
-        <v>0.9500112147112143</v>
+        <v>0.7959999999999998</v>
       </c>
       <c r="X39" t="n">
-        <v>4.255331009341535</v>
+        <v>4.004</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.5707060472970908</v>
+        <v>0.5370945273631831</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.005035103302984069</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.407683068783069</v>
+        <v>1.272</v>
       </c>
     </row>
     <row r="40">
@@ -3744,67 +3744,67 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.01130348258706464</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="J40" t="n">
-        <v>0.753112745794835</v>
+        <v>0.802845771144278</v>
       </c>
       <c r="K40" t="n">
-        <v>0.123946116164537</v>
+        <v>0.1520000000000001</v>
       </c>
       <c r="L40" t="n">
-        <v>1.715155555555555</v>
+        <v>1.887999999999999</v>
       </c>
       <c r="M40" t="n">
-        <v>1.527636278922844</v>
+        <v>1.543343283582089</v>
       </c>
       <c r="N40" t="n">
-        <v>0.3789454064454057</v>
+        <v>0.388</v>
       </c>
       <c r="O40" t="n">
-        <v>3.144199999999994</v>
+        <v>3.191999999999999</v>
       </c>
       <c r="P40" t="n">
-        <v>1.833533748018531</v>
+        <v>1.828656716417909</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.432579496429496</v>
+        <v>0.4039999999999999</v>
       </c>
       <c r="R40" t="n">
-        <v>3.827819047619047</v>
+        <v>3.756000000000001</v>
       </c>
       <c r="S40" t="n">
-        <v>1.815085274086317</v>
+        <v>1.820736318407959</v>
       </c>
       <c r="T40" t="n">
-        <v>0.5381793650793654</v>
+        <v>0.452</v>
       </c>
       <c r="U40" t="n">
-        <v>3.564474473674476</v>
+        <v>3.599999999999997</v>
       </c>
       <c r="V40" t="n">
-        <v>1.440317147068887</v>
+        <v>1.46286567164179</v>
       </c>
       <c r="W40" t="n">
-        <v>0.3018405372405371</v>
+        <v>0.3879999999999999</v>
       </c>
       <c r="X40" t="n">
-        <v>2.999239538239538</v>
+        <v>2.956</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.3981663976892817</v>
+        <v>0.4175920398009939</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>1.034280952380952</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="41">
@@ -3839,55 +3839,55 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.02266666666666667</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>19.69292006633501</v>
+        <v>19.7886567164179</v>
       </c>
       <c r="N41" t="n">
-        <v>10.92034920634921</v>
+        <v>10.908</v>
       </c>
       <c r="O41" t="n">
-        <v>32.24913333333334</v>
+        <v>31.78400000000001</v>
       </c>
       <c r="P41" t="n">
-        <v>20.79645488430856</v>
+        <v>20.98270646766163</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.53341164021163</v>
+        <v>14.656</v>
       </c>
       <c r="R41" t="n">
-        <v>26.71704285714286</v>
+        <v>26.64</v>
       </c>
       <c r="S41" t="n">
-        <v>12.22771900741602</v>
+        <v>12.78875621890546</v>
       </c>
       <c r="T41" t="n">
-        <v>8.841341314241316</v>
+        <v>9.364000000000003</v>
       </c>
       <c r="U41" t="n">
-        <v>15.89804106198811</v>
+        <v>16.23599999999999</v>
       </c>
       <c r="V41" t="n">
-        <v>6.446443482756409</v>
+        <v>6.418587064676606</v>
       </c>
       <c r="W41" t="n">
-        <v>3.43664708994709</v>
+        <v>3.335999999999997</v>
       </c>
       <c r="X41" t="n">
-        <v>9.530891364191364</v>
+        <v>9.544000000000006</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.25262535997262</v>
+        <v>1.248995024875621</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.1953517075517072</v>
+        <v>0.2039999999999999</v>
       </c>
       <c r="AA41" t="n">
-        <v>2.614573178673182</v>
+        <v>2.619999999999998</v>
       </c>
     </row>
     <row r="42">
@@ -3910,67 +3910,67 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>34.01218650380379</v>
+        <v>33.77896517412918</v>
       </c>
       <c r="H42" t="n">
-        <v>21.58624545454547</v>
+        <v>21.65199999999998</v>
       </c>
       <c r="I42" t="n">
-        <v>48.06420054945053</v>
+        <v>48.02000000000001</v>
       </c>
       <c r="J42" t="n">
-        <v>25.64707216088334</v>
+        <v>25.97852736318394</v>
       </c>
       <c r="K42" t="n">
-        <v>20.81179296629297</v>
+        <v>21.004</v>
       </c>
       <c r="L42" t="n">
-        <v>30.49478731213746</v>
+        <v>30.91600000000001</v>
       </c>
       <c r="M42" t="n">
-        <v>11.80940343385436</v>
+        <v>11.59339303482587</v>
       </c>
       <c r="N42" t="n">
-        <v>7.157988943984717</v>
+        <v>6.772000000000002</v>
       </c>
       <c r="O42" t="n">
-        <v>16.13652214781553</v>
+        <v>16.04800000000001</v>
       </c>
       <c r="P42" t="n">
-        <v>4.411955481121679</v>
+        <v>4.3721791044776</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.648806145706144</v>
+        <v>1.695999999999999</v>
       </c>
       <c r="R42" t="n">
-        <v>8.803672804680701</v>
+        <v>8.124000000000002</v>
       </c>
       <c r="S42" t="n">
-        <v>1.514356455816156</v>
+        <v>1.522845771144279</v>
       </c>
       <c r="T42" t="n">
-        <v>0.1458547619047618</v>
+        <v>0.1919999999999999</v>
       </c>
       <c r="U42" t="n">
-        <v>3.674798534798536</v>
+        <v>3.715999999999999</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4189536128879411</v>
+        <v>0.4346865671641783</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>1.450438095238096</v>
+        <v>1.46</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.04966759851535976</v>
+        <v>0.05034825870646764</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.3764444444444436</v>
+        <v>0.3879999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3984,76 +3984,76 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.0600597014925372</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="G43" t="n">
-        <v>8.079703975847261</v>
+        <v>8.403124378109458</v>
       </c>
       <c r="H43" t="n">
-        <v>3.911093373293374</v>
+        <v>4.067999999999999</v>
       </c>
       <c r="I43" t="n">
-        <v>14.11060952380952</v>
+        <v>14.832</v>
       </c>
       <c r="J43" t="n">
-        <v>12.40411873269533</v>
+        <v>12.68431840796018</v>
       </c>
       <c r="K43" t="n">
-        <v>6.719454545454539</v>
+        <v>6.968000000000003</v>
       </c>
       <c r="L43" t="n">
-        <v>20.26910936100937</v>
+        <v>19.58400000000001</v>
       </c>
       <c r="M43" t="n">
-        <v>11.10587066736228</v>
+        <v>10.65854726368159</v>
       </c>
       <c r="N43" t="n">
-        <v>7.355607637362165</v>
+        <v>6.556000000000004</v>
       </c>
       <c r="O43" t="n">
-        <v>15.33597695227034</v>
+        <v>14.88</v>
       </c>
       <c r="P43" t="n">
-        <v>7.495775186139716</v>
+        <v>7.810865671641786</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.858739333307448</v>
+        <v>5.312</v>
       </c>
       <c r="R43" t="n">
-        <v>10.3341199434896</v>
+        <v>10.85200000000001</v>
       </c>
       <c r="S43" t="n">
-        <v>5.246456463216155</v>
+        <v>5.755223880597004</v>
       </c>
       <c r="T43" t="n">
-        <v>3.325818321292235</v>
+        <v>3.680000000000002</v>
       </c>
       <c r="U43" t="n">
-        <v>7.549498270472788</v>
+        <v>8.488000000000001</v>
       </c>
       <c r="V43" t="n">
-        <v>3.43877499146329</v>
+        <v>3.433572139303465</v>
       </c>
       <c r="W43" t="n">
-        <v>1.647166870384517</v>
+        <v>1.616</v>
       </c>
       <c r="X43" t="n">
-        <v>5.379760535697533</v>
+        <v>5.608000000000001</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.8100996104893371</v>
+        <v>0.8081393034825868</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.1844839231329397</v>
+        <v>0.196</v>
       </c>
       <c r="AA43" t="n">
-        <v>1.777628811928816</v>
+        <v>1.791999999999998</v>
       </c>
     </row>
     <row r="44">
@@ -4094,49 +4094,49 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>34.04075621890536</v>
+        <v>34.25874626865658</v>
       </c>
       <c r="N44" t="n">
-        <v>20.90399999999996</v>
+        <v>21.10400000000001</v>
       </c>
       <c r="O44" t="n">
-        <v>47.32036296296288</v>
+        <v>47.93200000000001</v>
       </c>
       <c r="P44" t="n">
-        <v>25.06745641288869</v>
+        <v>25.39568159203978</v>
       </c>
       <c r="Q44" t="n">
-        <v>19.78140851370851</v>
+        <v>20.00800000000001</v>
       </c>
       <c r="R44" t="n">
-        <v>29.87436439116439</v>
+        <v>29.65199999999998</v>
       </c>
       <c r="S44" t="n">
-        <v>10.9783013891581</v>
+        <v>10.74117412935322</v>
       </c>
       <c r="T44" t="n">
-        <v>5.986092857142854</v>
+        <v>5.872000000000001</v>
       </c>
       <c r="U44" t="n">
-        <v>15.62315929190634</v>
+        <v>15.56399999999999</v>
       </c>
       <c r="V44" t="n">
-        <v>3.378352681039232</v>
+        <v>3.389631840796008</v>
       </c>
       <c r="W44" t="n">
-        <v>1.024</v>
+        <v>1.036</v>
       </c>
       <c r="X44" t="n">
-        <v>6.38</v>
+        <v>6.348000000000001</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4218905472636802</v>
+        <v>0.421711442786069</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>1.183999999999998</v>
+        <v>1.184000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -4150,76 +4150,76 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>32.33651741293529</v>
+        <v>33.97707462686562</v>
       </c>
       <c r="E45" t="n">
-        <v>19.624</v>
+        <v>20.40399999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>46.86600000000004</v>
+        <v>47.86799999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>26.07384964068537</v>
+        <v>25.95999999999987</v>
       </c>
       <c r="H45" t="n">
-        <v>20.56148888888891</v>
+        <v>20.23999999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>31.00249999999998</v>
+        <v>31.06800000000003</v>
       </c>
       <c r="J45" t="n">
-        <v>12.09602771472123</v>
+        <v>11.45530348258705</v>
       </c>
       <c r="K45" t="n">
-        <v>7.287161782661778</v>
+        <v>6.528</v>
       </c>
       <c r="L45" t="n">
-        <v>16.95143234173234</v>
+        <v>16.64400000000001</v>
       </c>
       <c r="M45" t="n">
-        <v>5.617369892484176</v>
+        <v>4.502467661691529</v>
       </c>
       <c r="N45" t="n">
-        <v>2.232706453138653</v>
+        <v>1.795999999999998</v>
       </c>
       <c r="O45" t="n">
-        <v>9.667858843581861</v>
+        <v>8.159999999999997</v>
       </c>
       <c r="P45" t="n">
-        <v>1.877333957621517</v>
+        <v>1.691582089552239</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.3390119510119516</v>
+        <v>0.2479999999999997</v>
       </c>
       <c r="R45" t="n">
-        <v>4.552523157685227</v>
+        <v>4.284000000000002</v>
       </c>
       <c r="S45" t="n">
-        <v>0.6366000775344053</v>
+        <v>0.6174129353233824</v>
       </c>
       <c r="T45" t="n">
-        <v>0.01283489288489289</v>
+        <v>0.024</v>
       </c>
       <c r="U45" t="n">
-        <v>2.130655870055869</v>
+        <v>2.088000000000001</v>
       </c>
       <c r="V45" t="n">
-        <v>0.1838972123509433</v>
+        <v>0.1859701492537312</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0.8918666666666667</v>
+        <v>0.9400000000000002</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.02217233936139401</v>
+        <v>0.02819900497512433</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.2013333333333328</v>
+        <v>0.2119999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -4251,58 +4251,58 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>26.22793452841603</v>
+        <v>25.61711442786055</v>
       </c>
       <c r="K46" t="n">
-        <v>16.08170052910052</v>
+        <v>15.812</v>
       </c>
       <c r="L46" t="n">
-        <v>39.33247828467831</v>
+        <v>37.88399999999999</v>
       </c>
       <c r="M46" t="n">
-        <v>41.0819448438422</v>
+        <v>41.11974129353219</v>
       </c>
       <c r="N46" t="n">
-        <v>34.03037142857143</v>
+        <v>34.172</v>
       </c>
       <c r="O46" t="n">
-        <v>47.74596095016098</v>
+        <v>47.05999999999999</v>
       </c>
       <c r="P46" t="n">
-        <v>13.20955758706548</v>
+        <v>12.7100895522388</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.8308083028083</v>
+        <v>6.528000000000003</v>
       </c>
       <c r="R46" t="n">
-        <v>19.3061424369748</v>
+        <v>18.90800000000001</v>
       </c>
       <c r="S46" t="n">
-        <v>3.041241127694851</v>
+        <v>2.9172935323383</v>
       </c>
       <c r="T46" t="n">
-        <v>0.5859999999999992</v>
+        <v>0.5199999999999999</v>
       </c>
       <c r="U46" t="n">
-        <v>6.530222222222231</v>
+        <v>6.307999999999998</v>
       </c>
       <c r="V46" t="n">
-        <v>0.516825428413487</v>
+        <v>0.4921393034825863</v>
       </c>
       <c r="W46" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.743999999999998</v>
+        <v>1.683999999999998</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.03544798231066881</v>
+        <v>0.03259701492537304</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.2566545454545456</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="47">
@@ -4325,61 +4325,61 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>48.88750792861079</v>
+        <v>48.59695522388054</v>
       </c>
       <c r="H47" t="n">
-        <v>34.89225714285712</v>
+        <v>34.96800000000003</v>
       </c>
       <c r="I47" t="n">
-        <v>60.42878151848149</v>
+        <v>61.30799999999997</v>
       </c>
       <c r="J47" t="n">
-        <v>36.88291431730233</v>
+        <v>36.54987064676617</v>
       </c>
       <c r="K47" t="n">
-        <v>28.82462541902541</v>
+        <v>28.12400000000001</v>
       </c>
       <c r="L47" t="n">
-        <v>44.76346031746029</v>
+        <v>44.75200000000002</v>
       </c>
       <c r="M47" t="n">
-        <v>3.715831897391341</v>
+        <v>3.730129353233824</v>
       </c>
       <c r="N47" t="n">
-        <v>0.7339579198579189</v>
+        <v>0.6520000000000006</v>
       </c>
       <c r="O47" t="n">
-        <v>8.557319047619048</v>
+        <v>8.563999999999998</v>
       </c>
       <c r="P47" t="n">
-        <v>0.3835001399297012</v>
+        <v>0.3435820895522377</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0008888888888888888</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>1.509466666666667</v>
+        <v>1.528</v>
       </c>
       <c r="S47" t="n">
-        <v>0.03867261312485188</v>
+        <v>0.04171144278606957</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0.3947107744107736</v>
+        <v>0.4079999999999998</v>
       </c>
       <c r="V47" t="n">
-        <v>0.004253943293897063</v>
+        <v>0.001253731343283576</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>0.012</v>
+        <v>0.004</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.0001877553270195321</v>
+        <v>3.98009950248756e-05</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
@@ -4399,76 +4399,76 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>3.984792703150898</v>
+        <v>3.827880597014919</v>
       </c>
       <c r="E48" t="n">
-        <v>1.528703703703703</v>
+        <v>1.536</v>
       </c>
       <c r="F48" t="n">
-        <v>6.803777777777785</v>
+        <v>6.696000000000002</v>
       </c>
       <c r="G48" t="n">
-        <v>11.94606567164178</v>
+        <v>12.32256716417909</v>
       </c>
       <c r="H48" t="n">
-        <v>6.137660317460321</v>
+        <v>6.391999999999996</v>
       </c>
       <c r="I48" t="n">
-        <v>19.62356190476189</v>
+        <v>19.97600000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>12.06304152613556</v>
+        <v>11.9361592039801</v>
       </c>
       <c r="K48" t="n">
-        <v>6.84347888407888</v>
+        <v>6.916000000000001</v>
       </c>
       <c r="L48" t="n">
-        <v>17.24732207792209</v>
+        <v>17.076</v>
       </c>
       <c r="M48" t="n">
-        <v>9.23195659710067</v>
+        <v>9.088776119402972</v>
       </c>
       <c r="N48" t="n">
-        <v>6.398960215835181</v>
+        <v>5.995999999999998</v>
       </c>
       <c r="O48" t="n">
-        <v>12.34654458374215</v>
+        <v>12.432</v>
       </c>
       <c r="P48" t="n">
-        <v>5.643245761112732</v>
+        <v>6.463999999999993</v>
       </c>
       <c r="Q48" t="n">
-        <v>3.580152117816824</v>
+        <v>4.184000000000003</v>
       </c>
       <c r="R48" t="n">
-        <v>8.45673536790019</v>
+        <v>8.955999999999996</v>
       </c>
       <c r="S48" t="n">
-        <v>4.560821401649752</v>
+        <v>4.7233631840796</v>
       </c>
       <c r="T48" t="n">
-        <v>2.799658230658231</v>
+        <v>2.76</v>
       </c>
       <c r="U48" t="n">
-        <v>6.411377002140308</v>
+        <v>6.772000000000003</v>
       </c>
       <c r="V48" t="n">
-        <v>2.807549839068241</v>
+        <v>2.800537313432834</v>
       </c>
       <c r="W48" t="n">
-        <v>1.150689488289489</v>
+        <v>0.976</v>
       </c>
       <c r="X48" t="n">
-        <v>4.454372279182804</v>
+        <v>4.523999999999997</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.7005498546229882</v>
+        <v>0.7054925373134321</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.03444244816543729</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>1.492681844081844</v>
+        <v>1.639999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -4500,58 +4500,58 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2969417352870078</v>
+        <v>0.2908059701492524</v>
       </c>
       <c r="K49" t="n">
-        <v>0.002757756376177429</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.8909174603174591</v>
+        <v>0.8479999999999996</v>
       </c>
       <c r="M49" t="n">
-        <v>1.264086525046725</v>
+        <v>1.303781094527362</v>
       </c>
       <c r="N49" t="n">
-        <v>0.1931263588263584</v>
+        <v>0.2079999999999999</v>
       </c>
       <c r="O49" t="n">
-        <v>2.705533333333337</v>
+        <v>2.747999999999999</v>
       </c>
       <c r="P49" t="n">
-        <v>1.722256203111423</v>
+        <v>1.72734328358209</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.4069636696636689</v>
+        <v>0.4119999999999998</v>
       </c>
       <c r="R49" t="n">
-        <v>3.418600000000002</v>
+        <v>3.432000000000002</v>
       </c>
       <c r="S49" t="n">
-        <v>1.846802101043706</v>
+        <v>1.891741293532337</v>
       </c>
       <c r="T49" t="n">
-        <v>0.4433904761904757</v>
+        <v>0.4239999999999999</v>
       </c>
       <c r="U49" t="n">
-        <v>3.721151322751326</v>
+        <v>3.752000000000002</v>
       </c>
       <c r="V49" t="n">
-        <v>1.456565172454227</v>
+        <v>1.480716417910446</v>
       </c>
       <c r="W49" t="n">
-        <v>0.3311122544122542</v>
+        <v>0.3759999999999999</v>
       </c>
       <c r="X49" t="n">
-        <v>2.811466666666667</v>
+        <v>2.856</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.4279534973042433</v>
+        <v>0.4319402985074624</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>1.220888888888888</v>
+        <v>1.204000000000001</v>
       </c>
     </row>
     <row r="50">
@@ -4565,76 +4565,76 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4305579088683562</v>
+        <v>0.3799402985074616</v>
       </c>
       <c r="E50" t="n">
-        <v>0.03061904761904763</v>
+        <v>0.012</v>
       </c>
       <c r="F50" t="n">
-        <v>1.06150634920635</v>
+        <v>1.011999999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>1.231891772020129</v>
+        <v>1.268915422885571</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2917652236652234</v>
+        <v>0.348</v>
       </c>
       <c r="I50" t="n">
-        <v>2.558754761904762</v>
+        <v>2.680000000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>1.748439249620841</v>
+        <v>1.746885572139303</v>
       </c>
       <c r="K50" t="n">
-        <v>0.3883518037518029</v>
+        <v>0.3639999999999999</v>
       </c>
       <c r="L50" t="n">
-        <v>3.615921356421356</v>
+        <v>3.632000000000001</v>
       </c>
       <c r="M50" t="n">
-        <v>1.882437948066306</v>
+        <v>1.885751243781094</v>
       </c>
       <c r="N50" t="n">
-        <v>0.4865275132275131</v>
+        <v>0.4800000000000001</v>
       </c>
       <c r="O50" t="n">
-        <v>3.879599518999518</v>
+        <v>3.948000000000001</v>
       </c>
       <c r="P50" t="n">
-        <v>1.832538767221353</v>
+        <v>1.855363184079601</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.58230125060125</v>
+        <v>0.5600000000000002</v>
       </c>
       <c r="R50" t="n">
-        <v>3.452820512820516</v>
+        <v>3.688000000000001</v>
       </c>
       <c r="S50" t="n">
-        <v>1.720305140961856</v>
+        <v>1.711820895522387</v>
       </c>
       <c r="T50" t="n">
-        <v>0.4519999999999995</v>
+        <v>0.4480000000000001</v>
       </c>
       <c r="U50" t="n">
-        <v>3.270374603174599</v>
+        <v>3.168000000000002</v>
       </c>
       <c r="V50" t="n">
-        <v>1.237648424543948</v>
+        <v>1.245830845771144</v>
       </c>
       <c r="W50" t="n">
-        <v>0.2755948421948421</v>
+        <v>0.24</v>
       </c>
       <c r="X50" t="n">
-        <v>2.599891575091574</v>
+        <v>2.492</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.34090285608992</v>
+        <v>0.3330547263681586</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.9239999999999998</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="51">
@@ -4666,58 +4666,58 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.002230265339966828</v>
+        <v>0.00340298507462686</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.005333333333333334</v>
+        <v>0.024</v>
       </c>
       <c r="M51" t="n">
-        <v>0.1690111663902709</v>
+        <v>0.1684378109452735</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0.6079999999999989</v>
+        <v>0.6120000000000005</v>
       </c>
       <c r="P51" t="n">
-        <v>0.3816003804745086</v>
+        <v>0.321910447761193</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.01066666666666667</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>1.068</v>
+        <v>0.8759999999999999</v>
       </c>
       <c r="S51" t="n">
-        <v>0.4187386638237375</v>
+        <v>0.4214726368159197</v>
       </c>
       <c r="T51" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>1.109263369963369</v>
+        <v>1.068000000000001</v>
       </c>
       <c r="V51" t="n">
-        <v>0.3091625523177754</v>
+        <v>0.3043980099502477</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>0.8757699633699635</v>
+        <v>0.8719999999999999</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.1023808813077468</v>
+        <v>0.0975522388059701</v>
       </c>
       <c r="Z51" t="n">
         <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.409999999999999</v>
+        <v>0.4039999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -4758,49 +4758,49 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>50.20594919055514</v>
+        <v>50.4813532338308</v>
       </c>
       <c r="N52" t="n">
-        <v>34.80174444444443</v>
+        <v>35.05600000000001</v>
       </c>
       <c r="O52" t="n">
-        <v>64.74257460317467</v>
+        <v>65.01599999999996</v>
       </c>
       <c r="P52" t="n">
-        <v>24.16330133115445</v>
+        <v>24.0357014925372</v>
       </c>
       <c r="Q52" t="n">
-        <v>16.81732433862436</v>
+        <v>17.07199999999999</v>
       </c>
       <c r="R52" t="n">
-        <v>29.89203105783105</v>
+        <v>30.34799999999999</v>
       </c>
       <c r="S52" t="n">
-        <v>6.039359535655041</v>
+        <v>6.051999999999985</v>
       </c>
       <c r="T52" t="n">
-        <v>1.946</v>
+        <v>1.972</v>
       </c>
       <c r="U52" t="n">
-        <v>10.55203174603174</v>
+        <v>10.468</v>
       </c>
       <c r="V52" t="n">
-        <v>1.119318407960199</v>
+        <v>1.140437810945272</v>
       </c>
       <c r="W52" t="n">
-        <v>0.04000000000000001</v>
+        <v>0.1360000000000001</v>
       </c>
       <c r="X52" t="n">
-        <v>3.04</v>
+        <v>3.06</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.08649703861644149</v>
+        <v>0.0873233830845771</v>
       </c>
       <c r="Z52" t="n">
         <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.4161111111111103</v>
+        <v>0.4039999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -4814,76 +4814,76 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>7.7321807628524</v>
+        <v>8.279482587064663</v>
       </c>
       <c r="E53" t="n">
-        <v>3.618770370370368</v>
+        <v>3.883999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>12.85893333333331</v>
+        <v>13.99200000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>12.38428618810708</v>
+        <v>12.87942288557213</v>
       </c>
       <c r="H53" t="n">
-        <v>6.275428571428571</v>
+        <v>6.663999999999996</v>
       </c>
       <c r="I53" t="n">
-        <v>19.79679047619048</v>
+        <v>20.05999999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>11.12446102819238</v>
+        <v>11.10831840796019</v>
       </c>
       <c r="K53" t="n">
-        <v>6.38978787878787</v>
+        <v>6.404000000000004</v>
       </c>
       <c r="L53" t="n">
-        <v>15.72404761904764</v>
+        <v>15.53599999999999</v>
       </c>
       <c r="M53" t="n">
-        <v>8.066106495282414</v>
+        <v>8.110029850746253</v>
       </c>
       <c r="N53" t="n">
-        <v>4.932110030106345</v>
+        <v>4.979999999999997</v>
       </c>
       <c r="O53" t="n">
-        <v>10.67424365691668</v>
+        <v>10.93199999999999</v>
       </c>
       <c r="P53" t="n">
-        <v>5.056939910468041</v>
+        <v>5.664756218905462</v>
       </c>
       <c r="Q53" t="n">
-        <v>3.08879966407861</v>
+        <v>3.380000000000002</v>
       </c>
       <c r="R53" t="n">
-        <v>7.867701135758067</v>
+        <v>8.327999999999996</v>
       </c>
       <c r="S53" t="n">
-        <v>4.336789118620453</v>
+        <v>4.008179104477605</v>
       </c>
       <c r="T53" t="n">
-        <v>2.568096325896326</v>
+        <v>2.108</v>
       </c>
       <c r="U53" t="n">
-        <v>6.006503172431431</v>
+        <v>6.084000000000004</v>
       </c>
       <c r="V53" t="n">
-        <v>2.473721285467792</v>
+        <v>2.445711442786064</v>
       </c>
       <c r="W53" t="n">
-        <v>0.9272149184149178</v>
+        <v>0.8199999999999997</v>
       </c>
       <c r="X53" t="n">
-        <v>4.297597676008201</v>
+        <v>4.06</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.5876298726149458</v>
+        <v>0.5605373134328349</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.04014462711250788</v>
+        <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>1.356071835571836</v>
+        <v>1.308</v>
       </c>
     </row>
     <row r="54">
@@ -4897,76 +4897,76 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>0.001114427860696516</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1622632665933659</v>
+        <v>0.1535323383084576</v>
       </c>
       <c r="H54" t="n">
-        <v>0.003996949891067538</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6241008269508278</v>
+        <v>0.5960000000000005</v>
       </c>
       <c r="J54" t="n">
-        <v>0.3321528083488272</v>
+        <v>0.319243781094526</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0004444444444444445</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9749008288008285</v>
+        <v>0.9399999999999997</v>
       </c>
       <c r="M54" t="n">
-        <v>0.4161607275532634</v>
+        <v>0.4059303482587054</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1.185714500749793</v>
+        <v>1.180000000000001</v>
       </c>
       <c r="P54" t="n">
-        <v>0.4344669616320685</v>
+        <v>0.4363980099502479</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>1.192242857142858</v>
+        <v>1.196000000000001</v>
       </c>
       <c r="S54" t="n">
-        <v>0.4441363737423429</v>
+        <v>0.4489552238805961</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>1.206424923030184</v>
+        <v>1.200000000000001</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3416157090191911</v>
+        <v>0.3187462686567157</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0.9971031746031747</v>
+        <v>1</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.09804969720282856</v>
+        <v>0.1013532338308457</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.399999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -4980,76 +4980,76 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.02600995024875616</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.004000000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="G55" t="n">
-        <v>0.6739264675070635</v>
+        <v>0.7677412935323374</v>
       </c>
       <c r="H55" t="n">
-        <v>0.08148742608154373</v>
+        <v>0.032</v>
       </c>
       <c r="I55" t="n">
-        <v>1.766274603174604</v>
+        <v>1.803999999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>1.501239572441562</v>
+        <v>1.532318407960198</v>
       </c>
       <c r="K55" t="n">
-        <v>0.3640629148629142</v>
+        <v>0.388</v>
       </c>
       <c r="L55" t="n">
-        <v>2.986931246531247</v>
+        <v>3.024</v>
       </c>
       <c r="M55" t="n">
-        <v>1.808686846560477</v>
+        <v>1.825412935323382</v>
       </c>
       <c r="N55" t="n">
-        <v>0.4718920634920634</v>
+        <v>0.528</v>
       </c>
       <c r="O55" t="n">
-        <v>3.790418037518037</v>
+        <v>3.808000000000002</v>
       </c>
       <c r="P55" t="n">
-        <v>1.851554187170311</v>
+        <v>1.838328358208955</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.5301694398194399</v>
+        <v>0.5880000000000005</v>
       </c>
       <c r="R55" t="n">
-        <v>3.753212287712287</v>
+        <v>3.724000000000002</v>
       </c>
       <c r="S55" t="n">
-        <v>1.804008449814419</v>
+        <v>1.758368159203979</v>
       </c>
       <c r="T55" t="n">
-        <v>0.5609444444444449</v>
+        <v>0.5880000000000004</v>
       </c>
       <c r="U55" t="n">
-        <v>3.392051034151033</v>
+        <v>3.311999999999998</v>
       </c>
       <c r="V55" t="n">
-        <v>1.302961288794124</v>
+        <v>1.301950248756218</v>
       </c>
       <c r="W55" t="n">
-        <v>0.2788636252636253</v>
+        <v>0.2519999999999999</v>
       </c>
       <c r="X55" t="n">
-        <v>2.517958241758243</v>
+        <v>2.508000000000001</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.3734621785253616</v>
+        <v>0.3759601990049748</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>1.0058</v>
+        <v>0.9919999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -5081,58 +5081,58 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>49.18229575214762</v>
+        <v>49.72859701492514</v>
       </c>
       <c r="K56" t="n">
-        <v>36.71464013132837</v>
+        <v>35.87199999999999</v>
       </c>
       <c r="L56" t="n">
-        <v>63.50317013727015</v>
+        <v>64.22400000000006</v>
       </c>
       <c r="M56" t="n">
-        <v>24.58938585339467</v>
+        <v>24.85926368159191</v>
       </c>
       <c r="N56" t="n">
-        <v>18.63547253117251</v>
+        <v>18.55600000000002</v>
       </c>
       <c r="O56" t="n">
-        <v>29.63089489787662</v>
+        <v>31.024</v>
       </c>
       <c r="P56" t="n">
-        <v>6.627706032009263</v>
+        <v>6.704437810945258</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.54618412698413</v>
+        <v>2.655999999999999</v>
       </c>
       <c r="R56" t="n">
-        <v>11.24999047619048</v>
+        <v>11.35999999999999</v>
       </c>
       <c r="S56" t="n">
-        <v>1.446865719023927</v>
+        <v>1.453114427860696</v>
       </c>
       <c r="T56" t="n">
-        <v>0.05000000000000002</v>
+        <v>0.052</v>
       </c>
       <c r="U56" t="n">
-        <v>3.605121693121688</v>
+        <v>3.544000000000002</v>
       </c>
       <c r="V56" t="n">
-        <v>0.2500351259575131</v>
+        <v>0.2533731343283577</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>0.9289999999999996</v>
+        <v>0.9479999999999997</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.01651393824528152</v>
+        <v>0.01512437810945274</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.2013333333333328</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="57">
@@ -5164,58 +5164,58 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>36.69160847667157</v>
+        <v>36.31785074626853</v>
       </c>
       <c r="K57" t="n">
-        <v>25.69272645502645</v>
+        <v>25.192</v>
       </c>
       <c r="L57" t="n">
-        <v>47.69106068006069</v>
+        <v>47.208</v>
       </c>
       <c r="M57" t="n">
-        <v>41.02687215174719</v>
+        <v>41.15512437810931</v>
       </c>
       <c r="N57" t="n">
-        <v>34.72688095238097</v>
+        <v>34.74799999999999</v>
       </c>
       <c r="O57" t="n">
-        <v>47.4150088097088</v>
+        <v>47.41999999999999</v>
       </c>
       <c r="P57" t="n">
-        <v>7.147668325041442</v>
+        <v>7.483482587064668</v>
       </c>
       <c r="Q57" t="n">
-        <v>3.04982222222222</v>
+        <v>3.14</v>
       </c>
       <c r="R57" t="n">
-        <v>13.18799999999999</v>
+        <v>13.66799999999999</v>
       </c>
       <c r="S57" t="n">
-        <v>0.9900703150912085</v>
+        <v>1.089353233830843</v>
       </c>
       <c r="T57" t="n">
-        <v>0.026</v>
+        <v>0.032</v>
       </c>
       <c r="U57" t="n">
-        <v>2.830666666666669</v>
+        <v>3.04</v>
       </c>
       <c r="V57" t="n">
-        <v>0.0952080500943684</v>
+        <v>0.1242985074626863</v>
       </c>
       <c r="W57" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>0.5640000000000004</v>
+        <v>0.6600000000000005</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.009975243773341504</v>
+        <v>0.01072636815920395</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.124238095238095</v>
+        <v>0.1440000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -5229,76 +5229,76 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4039953407565343</v>
+        <v>0.3658109452736312</v>
       </c>
       <c r="E58" t="n">
-        <v>0.008450793650793653</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1.053322222222223</v>
+        <v>0.9919999999999993</v>
       </c>
       <c r="G58" t="n">
-        <v>1.217049112302842</v>
+        <v>1.244119402985075</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2385066378066376</v>
+        <v>0.2559999999999999</v>
       </c>
       <c r="I58" t="n">
-        <v>2.520721428571428</v>
+        <v>2.668000000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>1.754652184944224</v>
+        <v>1.744398009950249</v>
       </c>
       <c r="K58" t="n">
-        <v>0.3651147667147662</v>
+        <v>0.3080000000000001</v>
       </c>
       <c r="L58" t="n">
-        <v>3.912699999999999</v>
+        <v>3.875999999999999</v>
       </c>
       <c r="M58" t="n">
-        <v>1.900871178738342</v>
+        <v>1.893492537313431</v>
       </c>
       <c r="N58" t="n">
-        <v>0.5650031746031743</v>
+        <v>0.5800000000000002</v>
       </c>
       <c r="O58" t="n">
-        <v>3.851394227994227</v>
+        <v>3.940000000000001</v>
       </c>
       <c r="P58" t="n">
-        <v>1.855164440616883</v>
+        <v>1.861631840796018</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.5220006567506569</v>
+        <v>0.488</v>
       </c>
       <c r="R58" t="n">
-        <v>3.670187612387611</v>
+        <v>3.619999999999998</v>
       </c>
       <c r="S58" t="n">
-        <v>1.759502358338178</v>
+        <v>1.748358208955223</v>
       </c>
       <c r="T58" t="n">
-        <v>0.5697777777777784</v>
+        <v>0.5320000000000001</v>
       </c>
       <c r="U58" t="n">
-        <v>3.291168253968248</v>
+        <v>3.292000000000002</v>
       </c>
       <c r="V58" t="n">
-        <v>1.254793240148463</v>
+        <v>1.280716417910447</v>
       </c>
       <c r="W58" t="n">
-        <v>0.2426683871683871</v>
+        <v>0.2919999999999999</v>
       </c>
       <c r="X58" t="n">
-        <v>2.46122490842491</v>
+        <v>2.492000000000001</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.3514710073968767</v>
+        <v>0.3521592039800989</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.9833460317460316</v>
+        <v>0.9520000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -5330,58 +5330,58 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>33.82922319661221</v>
+        <v>33.6732736318407</v>
       </c>
       <c r="K59" t="n">
-        <v>22.04778418063418</v>
+        <v>21.53199999999999</v>
       </c>
       <c r="L59" t="n">
-        <v>48.17243813963812</v>
+        <v>49.82400000000001</v>
       </c>
       <c r="M59" t="n">
-        <v>24.97815720945708</v>
+        <v>25.73399004975112</v>
       </c>
       <c r="N59" t="n">
-        <v>19.86149951529952</v>
+        <v>20.2</v>
       </c>
       <c r="O59" t="n">
-        <v>29.56964487382659</v>
+        <v>30.72399999999999</v>
       </c>
       <c r="P59" t="n">
-        <v>12.07239124935367</v>
+        <v>11.49450746268657</v>
       </c>
       <c r="Q59" t="n">
-        <v>6.93057620734385</v>
+        <v>6.688000000000006</v>
       </c>
       <c r="R59" t="n">
-        <v>16.1495490243159</v>
+        <v>15.94800000000001</v>
       </c>
       <c r="S59" t="n">
-        <v>4.319252445564376</v>
+        <v>4.248696517412921</v>
       </c>
       <c r="T59" t="n">
-        <v>1.392058730158731</v>
+        <v>1.432</v>
       </c>
       <c r="U59" t="n">
-        <v>8.299481839425731</v>
+        <v>7.980000000000006</v>
       </c>
       <c r="V59" t="n">
-        <v>1.26430949222143</v>
+        <v>1.245830845771142</v>
       </c>
       <c r="W59" t="n">
-        <v>0.1080444444444443</v>
+        <v>0.1280000000000001</v>
       </c>
       <c r="X59" t="n">
-        <v>2.955933333333332</v>
+        <v>2.911999999999999</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.1396152570480926</v>
+        <v>0.137194029850746</v>
       </c>
       <c r="Z59" t="n">
         <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.5959999999999992</v>
+        <v>0.5920000000000005</v>
       </c>
     </row>
     <row r="60">
@@ -5395,76 +5395,76 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1265143173023769</v>
+        <v>0.1152039800995025</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0107968253968254</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5226666666666666</v>
+        <v>0.5039999999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2682919047140428</v>
+        <v>0.2772736318407947</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0103</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.7960373348873335</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="J60" t="n">
-        <v>0.3713955829319003</v>
+        <v>0.3820099502487553</v>
       </c>
       <c r="K60" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>1.023610689310689</v>
+        <v>1.072</v>
       </c>
       <c r="M60" t="n">
-        <v>0.4503917185081352</v>
+        <v>0.4620497512437802</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1.198407311207309</v>
+        <v>1.200000000000001</v>
       </c>
       <c r="P60" t="n">
-        <v>0.4354601331144412</v>
+        <v>0.4468656716417905</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>1.320095238095238</v>
+        <v>1.332</v>
       </c>
       <c r="S60" t="n">
-        <v>0.4177764510779433</v>
+        <v>0.4240995024875615</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>1.232541839447102</v>
+        <v>1.208000000000001</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3158225198792354</v>
+        <v>0.3264079601990042</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>1.009285714285714</v>
+        <v>1.032</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.08747791202716576</v>
+        <v>0.08897512437810944</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.4173333333333325</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="61">
@@ -5487,61 +5487,61 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>50.74816072887856</v>
+        <v>50.13343283582083</v>
       </c>
       <c r="H61" t="n">
-        <v>36.35035937395941</v>
+        <v>36.70799999999998</v>
       </c>
       <c r="I61" t="n">
-        <v>65.05998027528028</v>
+        <v>65.27999999999999</v>
       </c>
       <c r="J61" t="n">
-        <v>24.87361207459046</v>
+        <v>24.86083582089548</v>
       </c>
       <c r="K61" t="n">
-        <v>18.64333803603804</v>
+        <v>18.46399999999999</v>
       </c>
       <c r="L61" t="n">
-        <v>30.41253218948234</v>
+        <v>30.24399999999999</v>
       </c>
       <c r="M61" t="n">
-        <v>6.527417952859736</v>
+        <v>6.659044776119394</v>
       </c>
       <c r="N61" t="n">
-        <v>2.582253278529751</v>
+        <v>2.611999999999997</v>
       </c>
       <c r="O61" t="n">
-        <v>12.02184366861194</v>
+        <v>11.688</v>
       </c>
       <c r="P61" t="n">
-        <v>1.483520211316231</v>
+        <v>1.540935323383082</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.154294683965272</v>
+        <v>0.196</v>
       </c>
       <c r="R61" t="n">
-        <v>3.760309523809524</v>
+        <v>3.692000000000001</v>
       </c>
       <c r="S61" t="n">
-        <v>0.3434442549158959</v>
+        <v>0.3398805970149246</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>1.329758933658934</v>
+        <v>1.336000000000001</v>
       </c>
       <c r="V61" t="n">
-        <v>0.05420611661504251</v>
+        <v>0.05886567164179093</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>0.489022510822511</v>
+        <v>0.468</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.002772707042358781</v>
+        <v>0.002149253731343284</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
@@ -5570,67 +5570,67 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>15.21387573244884</v>
+        <v>14.96628855721392</v>
       </c>
       <c r="H62" t="n">
-        <v>8.311377777777773</v>
+        <v>8.004000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>23.81787142857142</v>
+        <v>23.69999999999999</v>
       </c>
       <c r="J62" t="n">
-        <v>34.38295176086167</v>
+        <v>34.20881592039793</v>
       </c>
       <c r="K62" t="n">
-        <v>23.46292482517483</v>
+        <v>23.816</v>
       </c>
       <c r="L62" t="n">
-        <v>43.54648893328891</v>
+        <v>42.51199999999998</v>
       </c>
       <c r="M62" t="n">
-        <v>16.8802356940626</v>
+        <v>17.68807960199005</v>
       </c>
       <c r="N62" t="n">
-        <v>12.344612165894</v>
+        <v>12.968</v>
       </c>
       <c r="O62" t="n">
-        <v>21.50470189911568</v>
+        <v>22.424</v>
       </c>
       <c r="P62" t="n">
-        <v>7.596278783380576</v>
+        <v>7.161452736318396</v>
       </c>
       <c r="Q62" t="n">
-        <v>3.486195662507425</v>
+        <v>3.392000000000002</v>
       </c>
       <c r="R62" t="n">
-        <v>12.06115560986627</v>
+        <v>11.46399999999999</v>
       </c>
       <c r="S62" t="n">
-        <v>2.467941127694844</v>
+        <v>2.511402985074609</v>
       </c>
       <c r="T62" t="n">
-        <v>0.4472999999999993</v>
+        <v>0.4399999999999998</v>
       </c>
       <c r="U62" t="n">
-        <v>5.488702973909866</v>
+        <v>5.528</v>
       </c>
       <c r="V62" t="n">
-        <v>0.7076530679933664</v>
+        <v>0.7433233830845765</v>
       </c>
       <c r="W62" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="X62" t="n">
-        <v>2.148333333333335</v>
+        <v>2.184000000000001</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.08095743504698714</v>
+        <v>0.08909452736318395</v>
       </c>
       <c r="Z62" t="n">
         <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.3973333333333324</v>
+        <v>0.4159999999999998</v>
       </c>
     </row>
     <row r="63">
@@ -5644,76 +5644,76 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>49.20597678275271</v>
+        <v>49.91643781094513</v>
       </c>
       <c r="E63" t="n">
-        <v>34.71866666666676</v>
+        <v>35.59599999999998</v>
       </c>
       <c r="F63" t="n">
-        <v>63.71333333333336</v>
+        <v>63.80799999999996</v>
       </c>
       <c r="G63" t="n">
-        <v>24.96554162520721</v>
+        <v>24.76445771144265</v>
       </c>
       <c r="H63" t="n">
-        <v>18.41799999999999</v>
+        <v>18.10000000000001</v>
       </c>
       <c r="I63" t="n">
-        <v>30.5729714285714</v>
+        <v>30.67199999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>7.274703293058515</v>
+        <v>6.861990049751243</v>
       </c>
       <c r="K63" t="n">
-        <v>3.250428571428578</v>
+        <v>2.803999999999998</v>
       </c>
       <c r="L63" t="n">
-        <v>12.47793795093794</v>
+        <v>12.156</v>
       </c>
       <c r="M63" t="n">
-        <v>2.093992147500119</v>
+        <v>1.635502487562188</v>
       </c>
       <c r="N63" t="n">
-        <v>0.4649410269469097</v>
+        <v>0.2479999999999999</v>
       </c>
       <c r="O63" t="n">
-        <v>4.941461449661453</v>
+        <v>3.983999999999996</v>
       </c>
       <c r="P63" t="n">
-        <v>0.4804195319145561</v>
+        <v>0.4147064676616907</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.01743119190178014</v>
+        <v>0.012</v>
       </c>
       <c r="R63" t="n">
-        <v>1.567442857142858</v>
+        <v>1.424000000000001</v>
       </c>
       <c r="S63" t="n">
-        <v>0.09298260976171414</v>
+        <v>0.09196019900497499</v>
       </c>
       <c r="T63" t="n">
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>0.4977954711954709</v>
+        <v>0.4759999999999998</v>
       </c>
       <c r="V63" t="n">
-        <v>0.02466791056091609</v>
+        <v>0.0201592039800995</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>0.2326095238095237</v>
+        <v>0.2199999999999999</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.001323710175948981</v>
+        <v>0.001970149253731341</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="64">
@@ -5727,76 +5727,76 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1089541182974018</v>
+        <v>0.1132338308457712</v>
       </c>
       <c r="E64" t="n">
-        <v>0.01986666666666667</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4890666666666666</v>
+        <v>0.5039999999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2741360174835287</v>
+        <v>0.2777114427860684</v>
       </c>
       <c r="H64" t="n">
-        <v>0.01274444444444445</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8120373348873337</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="J64" t="n">
-        <v>0.3743336702729727</v>
+        <v>0.3964577114427851</v>
       </c>
       <c r="K64" t="n">
-        <v>0.008000000000000002</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1.051166244866245</v>
+        <v>1.16</v>
       </c>
       <c r="M64" t="n">
-        <v>0.4527797782096276</v>
+        <v>0.4688358208955213</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>1.198407311207309</v>
+        <v>1.200000000000001</v>
       </c>
       <c r="P64" t="n">
-        <v>0.4349128694328491</v>
+        <v>0.4453333333333328</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>1.320095238095238</v>
+        <v>1.332</v>
       </c>
       <c r="S64" t="n">
-        <v>0.4466607202084806</v>
+        <v>0.4383283582089543</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>1.280986283891548</v>
+        <v>1.252</v>
       </c>
       <c r="V64" t="n">
-        <v>0.3079728791937746</v>
+        <v>0.3226865671641783</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>0.9672857142857143</v>
+        <v>0.988</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.09308056605270536</v>
+        <v>0.09050746268656713</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.4173333333333325</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="65">
@@ -5837,49 +5837,49 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>65.29522595751401</v>
+        <v>65.29211940298497</v>
       </c>
       <c r="N65" t="n">
-        <v>51.2623925925925</v>
+        <v>51.57999999999999</v>
       </c>
       <c r="O65" t="n">
-        <v>78.20012222222213</v>
+        <v>78.14000000000004</v>
       </c>
       <c r="P65" t="n">
-        <v>17.92241413303849</v>
+        <v>17.93882587064677</v>
       </c>
       <c r="Q65" t="n">
-        <v>10.08215449735448</v>
+        <v>10.07600000000001</v>
       </c>
       <c r="R65" t="n">
-        <v>25.95653015873016</v>
+        <v>25.88000000000001</v>
       </c>
       <c r="S65" t="n">
-        <v>2.447482587064668</v>
+        <v>2.508676616915414</v>
       </c>
       <c r="T65" t="n">
-        <v>0.5167500000000002</v>
+        <v>0.5239999999999998</v>
       </c>
       <c r="U65" t="n">
-        <v>5.769999999999992</v>
+        <v>5.84</v>
       </c>
       <c r="V65" t="n">
-        <v>0.2758056700623855</v>
+        <v>0.2805970149253721</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>1.161000000000001</v>
+        <v>1.172000000000001</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.0114237700386954</v>
+        <v>0.01251741293532337</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.1701079365079361</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="66">
@@ -5893,76 +5893,76 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>9.298082918739629</v>
+        <v>7.192776119402978</v>
       </c>
       <c r="E66" t="n">
-        <v>4.539401058201055</v>
+        <v>3.464000000000002</v>
       </c>
       <c r="F66" t="n">
-        <v>13.25100000000001</v>
+        <v>11.452</v>
       </c>
       <c r="G66" t="n">
-        <v>22.91915801942663</v>
+        <v>23.11180099502477</v>
       </c>
       <c r="H66" t="n">
-        <v>14.05217460317461</v>
+        <v>14.15999999999999</v>
       </c>
       <c r="I66" t="n">
-        <v>31.54824444444443</v>
+        <v>33.20800000000003</v>
       </c>
       <c r="J66" t="n">
-        <v>17.27521748111846</v>
+        <v>17.19510447761192</v>
       </c>
       <c r="K66" t="n">
-        <v>12.4137108854109</v>
+        <v>12.43599999999999</v>
       </c>
       <c r="L66" t="n">
-        <v>22.15488870388871</v>
+        <v>21.632</v>
       </c>
       <c r="M66" t="n">
-        <v>9.202506331719141</v>
+        <v>10.27335323383083</v>
       </c>
       <c r="N66" t="n">
-        <v>6.582735331719221</v>
+        <v>7.147999999999995</v>
       </c>
       <c r="O66" t="n">
-        <v>12.1410572934496</v>
+        <v>13.8</v>
       </c>
       <c r="P66" t="n">
-        <v>5.573538606336423</v>
+        <v>5.615064676616899</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.791018425583131</v>
+        <v>2.851999999999999</v>
       </c>
       <c r="R66" t="n">
-        <v>8.45842425678908</v>
+        <v>8.836000000000007</v>
       </c>
       <c r="S66" t="n">
-        <v>2.848584176519992</v>
+        <v>3.057552238805973</v>
       </c>
       <c r="T66" t="n">
-        <v>0.9027740648240643</v>
+        <v>0.9159999999999998</v>
       </c>
       <c r="U66" t="n">
-        <v>5.88209379022551</v>
+        <v>5.800000000000006</v>
       </c>
       <c r="V66" t="n">
-        <v>1.336649436725058</v>
+        <v>1.422726368159202</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1669365079365077</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="X66" t="n">
-        <v>3.35358710733711</v>
+        <v>3.360000000000002</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.2282161888967849</v>
+        <v>0.2327960199004967</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.0002616747181964573</v>
+        <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.6575793650793637</v>
+        <v>0.6640000000000005</v>
       </c>
     </row>
     <row r="67">
@@ -5976,76 +5976,76 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.14392039800995</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>0.264</v>
       </c>
       <c r="G67" t="n">
-        <v>19.35795865118851</v>
+        <v>19.44409950248755</v>
       </c>
       <c r="H67" t="n">
-        <v>10.36911111111113</v>
+        <v>10.38399999999999</v>
       </c>
       <c r="I67" t="n">
-        <v>31.80197063492064</v>
+        <v>31.356</v>
       </c>
       <c r="J67" t="n">
-        <v>21.12200613992601</v>
+        <v>21.01570149253728</v>
       </c>
       <c r="K67" t="n">
-        <v>14.47653480179951</v>
+        <v>14.564</v>
       </c>
       <c r="L67" t="n">
-        <v>27.3590047138047</v>
+        <v>27.29200000000001</v>
       </c>
       <c r="M67" t="n">
-        <v>12.37392533301656</v>
+        <v>13.2830447761194</v>
       </c>
       <c r="N67" t="n">
-        <v>8.71827035880084</v>
+        <v>9.660000000000004</v>
       </c>
       <c r="O67" t="n">
-        <v>16.2487343171277</v>
+        <v>16.97199999999999</v>
       </c>
       <c r="P67" t="n">
-        <v>7.50794456148521</v>
+        <v>7.514646766169154</v>
       </c>
       <c r="Q67" t="n">
-        <v>4.44485390762202</v>
+        <v>4.324000000000003</v>
       </c>
       <c r="R67" t="n">
-        <v>10.3341199434896</v>
+        <v>10.98</v>
       </c>
       <c r="S67" t="n">
-        <v>4.146438103853018</v>
+        <v>4.014606965174115</v>
       </c>
       <c r="T67" t="n">
-        <v>1.576953469477383</v>
+        <v>1.488</v>
       </c>
       <c r="U67" t="n">
-        <v>7.260314753307695</v>
+        <v>6.924000000000002</v>
       </c>
       <c r="V67" t="n">
-        <v>1.888232910722959</v>
+        <v>1.843960199004974</v>
       </c>
       <c r="W67" t="n">
-        <v>0.337422222222222</v>
+        <v>0.316</v>
       </c>
       <c r="X67" t="n">
-        <v>3.996588694638695</v>
+        <v>4.063999999999998</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.3410465740082647</v>
+        <v>0.336119402985074</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.000392156862745098</v>
+        <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>1.178900000000001</v>
+        <v>1.159999999999999</v>
       </c>
     </row>
     <row r="68">
@@ -6059,76 +6059,76 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.00525373134328356</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3950997193703653</v>
+        <v>0.335641791044775</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1244752567693743</v>
+        <v>0.008</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9501793650793637</v>
+        <v>0.8919999999999996</v>
       </c>
       <c r="J68" t="n">
-        <v>1.301689954029754</v>
+        <v>1.321791044776118</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2010793650793648</v>
+        <v>0.2159999999999999</v>
       </c>
       <c r="L68" t="n">
-        <v>2.778449032449034</v>
+        <v>2.819999999999999</v>
       </c>
       <c r="M68" t="n">
-        <v>1.751460001947562</v>
+        <v>1.762089552238805</v>
       </c>
       <c r="N68" t="n">
-        <v>0.4061043290043281</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="O68" t="n">
-        <v>3.703911111111111</v>
+        <v>3.724000000000002</v>
       </c>
       <c r="P68" t="n">
-        <v>1.874940444317061</v>
+        <v>1.888656716417909</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.5018426018426017</v>
+        <v>0.4159999999999999</v>
       </c>
       <c r="R68" t="n">
-        <v>3.774607525807527</v>
+        <v>3.908000000000001</v>
       </c>
       <c r="S68" t="n">
-        <v>1.872491147437415</v>
+        <v>1.886845771144277</v>
       </c>
       <c r="T68" t="n">
-        <v>0.5476666666666671</v>
+        <v>0.5960000000000005</v>
       </c>
       <c r="U68" t="n">
-        <v>3.638443867243871</v>
+        <v>3.619999999999998</v>
       </c>
       <c r="V68" t="n">
-        <v>1.395163397059913</v>
+        <v>1.395283582089551</v>
       </c>
       <c r="W68" t="n">
-        <v>0.3459228364228361</v>
+        <v>0.352</v>
       </c>
       <c r="X68" t="n">
-        <v>2.698920146520146</v>
+        <v>2.663999999999997</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.3972604541027414</v>
+        <v>0.3955820895522378</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>1.024149206349206</v>
+        <v>1.044</v>
       </c>
     </row>
     <row r="69">
@@ -6151,61 +6151,61 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>48.8859707731184</v>
+        <v>48.68925373134319</v>
       </c>
       <c r="H69" t="n">
-        <v>33.82846666666664</v>
+        <v>33.90400000000002</v>
       </c>
       <c r="I69" t="n">
-        <v>60.63408151848154</v>
+        <v>62.05600000000003</v>
       </c>
       <c r="J69" t="n">
-        <v>36.9880951591249</v>
+        <v>36.69351243781077</v>
       </c>
       <c r="K69" t="n">
-        <v>28.54935875235876</v>
+        <v>27.46000000000001</v>
       </c>
       <c r="L69" t="n">
-        <v>44.44397460317459</v>
+        <v>44.41200000000001</v>
       </c>
       <c r="M69" t="n">
-        <v>3.628383030614113</v>
+        <v>3.53886567164178</v>
       </c>
       <c r="N69" t="n">
-        <v>0.8256758685758675</v>
+        <v>0.8039999999999998</v>
       </c>
       <c r="O69" t="n">
-        <v>8.297547619047604</v>
+        <v>8.176000000000004</v>
       </c>
       <c r="P69" t="n">
-        <v>0.3590442921843013</v>
+        <v>0.3302089552238792</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>1.484666666666666</v>
+        <v>1.488</v>
       </c>
       <c r="S69" t="n">
-        <v>0.03831639421937925</v>
+        <v>0.03603980099502483</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>0.2823478114478115</v>
+        <v>0.2799999999999999</v>
       </c>
       <c r="V69" t="n">
-        <v>0.003912631813779611</v>
+        <v>0.002626865671641791</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.0004337105521670304</v>
+        <v>1.99004975124378e-05</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
@@ -6234,67 +6234,67 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.01130348258706464</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="J70" t="n">
-        <v>0.7235951749190558</v>
+        <v>0.7515820895522374</v>
       </c>
       <c r="K70" t="n">
-        <v>0.127946116164537</v>
+        <v>0.18</v>
       </c>
       <c r="L70" t="n">
-        <v>1.649851851851851</v>
+        <v>1.688</v>
       </c>
       <c r="M70" t="n">
-        <v>1.512410187159439</v>
+        <v>1.510905472636814</v>
       </c>
       <c r="N70" t="n">
-        <v>0.3789454064454057</v>
+        <v>0.384</v>
       </c>
       <c r="O70" t="n">
-        <v>3.137311111111105</v>
+        <v>3.168</v>
       </c>
       <c r="P70" t="n">
-        <v>1.827718443588301</v>
+        <v>1.811422885572138</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.4523869038369039</v>
+        <v>0.5240000000000001</v>
       </c>
       <c r="R70" t="n">
-        <v>3.70975238095238</v>
+        <v>3.675999999999998</v>
       </c>
       <c r="S70" t="n">
-        <v>1.825544945426586</v>
+        <v>1.806009950248755</v>
       </c>
       <c r="T70" t="n">
-        <v>0.5279031746031749</v>
+        <v>0.5400000000000001</v>
       </c>
       <c r="U70" t="n">
-        <v>3.5793421985422</v>
+        <v>3.484000000000001</v>
       </c>
       <c r="V70" t="n">
-        <v>1.399915544212558</v>
+        <v>1.392875621890546</v>
       </c>
       <c r="W70" t="n">
-        <v>0.365895563695563</v>
+        <v>0.3839999999999999</v>
       </c>
       <c r="X70" t="n">
-        <v>2.97066810966811</v>
+        <v>2.879999999999999</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.384519806451149</v>
+        <v>0.3921990049751237</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>1.031844444444445</v>
+        <v>1.024</v>
       </c>
     </row>
     <row r="71">
@@ -6326,58 +6326,58 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0388126036484244</v>
+        <v>0.0601592039800992</v>
       </c>
       <c r="K71" t="n">
-        <v>0.008</v>
+        <v>0.024</v>
       </c>
       <c r="L71" t="n">
-        <v>0.1093333333333334</v>
+        <v>0.112</v>
       </c>
       <c r="M71" t="n">
-        <v>8.765701768933084</v>
+        <v>8.787084577114422</v>
       </c>
       <c r="N71" t="n">
-        <v>3.9796</v>
+        <v>3.996</v>
       </c>
       <c r="O71" t="n">
-        <v>14.94866666666663</v>
+        <v>15.00800000000001</v>
       </c>
       <c r="P71" t="n">
-        <v>12.75786898839138</v>
+        <v>12.78075621890546</v>
       </c>
       <c r="Q71" t="n">
-        <v>6.743234920634926</v>
+        <v>6.620000000000002</v>
       </c>
       <c r="R71" t="n">
-        <v>19.40799999999999</v>
+        <v>19.34799999999999</v>
       </c>
       <c r="S71" t="n">
-        <v>10.82802062630569</v>
+        <v>10.61964179104478</v>
       </c>
       <c r="T71" t="n">
-        <v>6.888355960705959</v>
+        <v>6.720000000000006</v>
       </c>
       <c r="U71" t="n">
-        <v>14.69968697163404</v>
+        <v>14.53599999999999</v>
       </c>
       <c r="V71" t="n">
-        <v>6.695423411156739</v>
+        <v>6.701373134328355</v>
       </c>
       <c r="W71" t="n">
-        <v>4.353891005291008</v>
+        <v>4.339999999999996</v>
       </c>
       <c r="X71" t="n">
-        <v>9.372443745143746</v>
+        <v>9.323999999999991</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.709648748321883</v>
+        <v>1.726308457711442</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.6169357331611842</v>
+        <v>0.7160000000000002</v>
       </c>
       <c r="AA71" t="n">
-        <v>2.914572858949327</v>
+        <v>2.968</v>
       </c>
     </row>
     <row r="72">
@@ -6403,64 +6403,64 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>8.610452736318409</v>
+        <v>8.408676616915416</v>
       </c>
       <c r="K72" t="n">
-        <v>4.058222222222223</v>
+        <v>3.892</v>
       </c>
       <c r="L72" t="n">
-        <v>14.57035555555555</v>
+        <v>14.072</v>
       </c>
       <c r="M72" t="n">
-        <v>12.61559397146062</v>
+        <v>12.70831840796019</v>
       </c>
       <c r="N72" t="n">
-        <v>6.920526667232554</v>
+        <v>7.003999999999994</v>
       </c>
       <c r="O72" t="n">
-        <v>19.33844391534394</v>
+        <v>19.14399999999998</v>
       </c>
       <c r="P72" t="n">
-        <v>10.96269110547854</v>
+        <v>10.81771144278607</v>
       </c>
       <c r="Q72" t="n">
-        <v>7.102170364372122</v>
+        <v>6.940000000000001</v>
       </c>
       <c r="R72" t="n">
-        <v>15.35547493696534</v>
+        <v>15.252</v>
       </c>
       <c r="S72" t="n">
-        <v>7.768014276125169</v>
+        <v>8.04885572139303</v>
       </c>
       <c r="T72" t="n">
-        <v>4.87859712012417</v>
+        <v>5.335999999999996</v>
       </c>
       <c r="U72" t="n">
-        <v>10.51371802388746</v>
+        <v>10.896</v>
       </c>
       <c r="V72" t="n">
-        <v>4.923632806153039</v>
+        <v>5.037373134328347</v>
       </c>
       <c r="W72" t="n">
-        <v>2.968998819698819</v>
+        <v>3.064</v>
       </c>
       <c r="X72" t="n">
-        <v>6.976282676387938</v>
+        <v>7.183999999999998</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.223842964829531</v>
+        <v>1.232835820895521</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.408389643812783</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA72" t="n">
-        <v>2.296668779325247</v>
+        <v>2.288000000000002</v>
       </c>
     </row>
   </sheetData>
